--- a/b.xlsx
+++ b/b.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="818">
   <si>
     <t>89115519866</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Internet</t>
   </si>
   <si>
+    <t>2016-04-24T15:47:13</t>
+  </si>
+  <si>
     <t>UTC+3</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>1358</t>
   </si>
   <si>
+    <t>2016-04-24T15:43:08</t>
+  </si>
+  <si>
     <t>UTC+6</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
     <t>213.108.148.192 1 </t>
   </si>
   <si>
+    <t>2016-04-24T15:42:49</t>
+  </si>
+  <si>
     <t>Чувашская Республика - Чувашия</t>
   </si>
   <si>
@@ -74,6 +83,9 @@
     <t>176.193.104.201 1 </t>
   </si>
   <si>
+    <t>2016-04-24T15:42:26</t>
+  </si>
+  <si>
     <t>г. Москва и Московская область</t>
   </si>
   <si>
@@ -86,6 +98,9 @@
     <t>217.144.175.120 1 </t>
   </si>
   <si>
+    <t>2016-04-24T15:40:15</t>
+  </si>
+  <si>
     <t>UTC+8</t>
   </si>
   <si>
@@ -101,6 +116,9 @@
     <t>176.215.82.169 1 </t>
   </si>
   <si>
+    <t>2016-04-24T15:25:05</t>
+  </si>
+  <si>
     <t>UTC+7</t>
   </si>
   <si>
@@ -116,6 +134,9 @@
     <t>88887</t>
   </si>
   <si>
+    <t>2016-04-24T15:06:45</t>
+  </si>
+  <si>
     <t>Ярославская обл.</t>
   </si>
   <si>
@@ -131,6 +152,9 @@
     <t>Media</t>
   </si>
   <si>
+    <t>2016-04-24T15:01:31</t>
+  </si>
+  <si>
     <t>89824944995</t>
   </si>
   <si>
@@ -140,6 +164,9 @@
     <t>31.173.100.47 1 </t>
   </si>
   <si>
+    <t>2016-04-24T14:33:55</t>
+  </si>
+  <si>
     <t>UTC+5</t>
   </si>
   <si>
@@ -155,12 +182,18 @@
     <t>88.198.59.240 1 </t>
   </si>
   <si>
+    <t>2016-04-24T14:24:15</t>
+  </si>
+  <si>
     <t>89043850231</t>
   </si>
   <si>
     <t>46.165.63.119 1 </t>
   </si>
   <si>
+    <t>2016-04-24T14:24:06</t>
+  </si>
+  <si>
     <t>Свердловская область</t>
   </si>
   <si>
@@ -173,6 +206,9 @@
     <t>178.204.142.3 1 </t>
   </si>
   <si>
+    <t>2016-04-24T14:18:11</t>
+  </si>
+  <si>
     <t>89198662006</t>
   </si>
   <si>
@@ -182,7 +218,2254 @@
     <t>178.44.149.253 2 </t>
   </si>
   <si>
+    <t>2016-04-24T14:15:59</t>
+  </si>
+  <si>
     <t>Оренбургская обл.</t>
+  </si>
+  <si>
+    <t>89853840004</t>
+  </si>
+  <si>
+    <t>87.251.152.126 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T14:15:47</t>
+  </si>
+  <si>
+    <t>89228912215</t>
+  </si>
+  <si>
+    <t>02:05</t>
+  </si>
+  <si>
+    <t>Оренбургская область</t>
+  </si>
+  <si>
+    <t>89055728487</t>
+  </si>
+  <si>
+    <t>01:55</t>
+  </si>
+  <si>
+    <t>213.87.150.74 2 </t>
+  </si>
+  <si>
+    <t>2016-04-24T13:55:05</t>
+  </si>
+  <si>
+    <t>89164968289</t>
+  </si>
+  <si>
+    <t>01:51</t>
+  </si>
+  <si>
+    <t>89143098107</t>
+  </si>
+  <si>
+    <t>01:50</t>
+  </si>
+  <si>
+    <t>91.185.252.27 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T13:50:53</t>
+  </si>
+  <si>
+    <t>UTC+10</t>
+  </si>
+  <si>
+    <t>Республика Саха /Якутия/</t>
+  </si>
+  <si>
+    <t>89269370200</t>
+  </si>
+  <si>
+    <t>01:31</t>
+  </si>
+  <si>
+    <t>95.28.219.92 1 </t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>2016-04-24T13:31:57</t>
+  </si>
+  <si>
+    <t>UTC+4</t>
+  </si>
+  <si>
+    <t>89233544254</t>
+  </si>
+  <si>
+    <t>01:06</t>
+  </si>
+  <si>
+    <t>92.126.113.169 1 </t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>2016-04-24T13:06:04</t>
+  </si>
+  <si>
+    <t>89370300957</t>
+  </si>
+  <si>
+    <t>12:59</t>
+  </si>
+  <si>
+    <t>89.250.167.10 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T12:59:57</t>
+  </si>
+  <si>
+    <t>Ульяновская обл.</t>
+  </si>
+  <si>
+    <t>89116900666</t>
+  </si>
+  <si>
+    <t>78.36.236.165 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T12:59:29</t>
+  </si>
+  <si>
+    <t>Псковская область</t>
+  </si>
+  <si>
+    <t>89654213568</t>
+  </si>
+  <si>
+    <t>12:51</t>
+  </si>
+  <si>
+    <t>89.178.243.132 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T12:51:19</t>
+  </si>
+  <si>
+    <t>89168221143</t>
+  </si>
+  <si>
+    <t>12:41</t>
+  </si>
+  <si>
+    <t>95.221.219.15 1 </t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>2016-04-24T12:41:00</t>
+  </si>
+  <si>
+    <t>89047704185</t>
+  </si>
+  <si>
+    <t>12:22</t>
+  </si>
+  <si>
+    <t>95.153.135.216 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T12:22:20</t>
+  </si>
+  <si>
+    <t>Волгоградская обл.</t>
+  </si>
+  <si>
+    <t>89110528673</t>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
+    <t>94.143.240.162 2 </t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>2016-04-24T12:01:57</t>
+  </si>
+  <si>
+    <t>Республика Карелия</t>
+  </si>
+  <si>
+    <t>89657171651</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>Тамбовская обл.</t>
+  </si>
+  <si>
+    <t>89523178619</t>
+  </si>
+  <si>
+    <t>11:16</t>
+  </si>
+  <si>
+    <t>91.203.239.216 1 </t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>2016-04-24T11:16:40</t>
+  </si>
+  <si>
+    <t>89188640746</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>95.31.241.12 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T11:03:14</t>
+  </si>
+  <si>
+    <t>Ставропольский край</t>
+  </si>
+  <si>
+    <t>89164519546</t>
+  </si>
+  <si>
+    <t>11:02</t>
+  </si>
+  <si>
+    <t>93.120.186.237 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T11:02:18</t>
+  </si>
+  <si>
+    <t>89111577470</t>
+  </si>
+  <si>
+    <t>10:52</t>
+  </si>
+  <si>
+    <t>178.252.127.226 2 </t>
+  </si>
+  <si>
+    <t>2016-04-24T10:52:06</t>
+  </si>
+  <si>
+    <t>г. Санкт - Петербург и Ленинградская область</t>
+  </si>
+  <si>
+    <t>89286628884</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>31.173.198.128 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T10:50:19</t>
+  </si>
+  <si>
+    <t>Краснодарский край</t>
+  </si>
+  <si>
+    <t>89114110602</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>93.190.203.70 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T10:30:43</t>
+  </si>
+  <si>
+    <t>89295777833</t>
+  </si>
+  <si>
+    <t>10:16</t>
+  </si>
+  <si>
+    <t>5.101.65.147 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T10:16:55</t>
+  </si>
+  <si>
+    <t>89191239575</t>
+  </si>
+  <si>
+    <t>09:59</t>
+  </si>
+  <si>
+    <t>77.222.113.185 1 </t>
+  </si>
+  <si>
+    <t>88889</t>
+  </si>
+  <si>
+    <t>2016-04-24T09:59:16</t>
+  </si>
+  <si>
+    <t>Челябинская область</t>
+  </si>
+  <si>
+    <t>89283567186</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>109.168.161.234 1 </t>
+  </si>
+  <si>
+    <t>г. Минеральные Воды|р-н Минераловодский|Ставропольский край</t>
+  </si>
+  <si>
+    <t>89778134167</t>
+  </si>
+  <si>
+    <t>09:35</t>
+  </si>
+  <si>
+    <t>93.80.26.192 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T09:35:06</t>
+  </si>
+  <si>
+    <t>89787634492</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>178.219.170.8 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T09:30:52</t>
+  </si>
+  <si>
+    <t>89034936666</t>
+  </si>
+  <si>
+    <t>08:52</t>
+  </si>
+  <si>
+    <t>62.183.86.28 1 </t>
+  </si>
+  <si>
+    <t>2016-04-24T08:52:08</t>
+  </si>
+  <si>
+    <t>Республика Кабардино-Балкарская</t>
+  </si>
+  <si>
+    <t>89175434884</t>
+  </si>
+  <si>
+    <t>23-04-2016</t>
+  </si>
+  <si>
+    <t>04:15</t>
+  </si>
+  <si>
+    <t>46.159.52.135 1 </t>
+  </si>
+  <si>
+    <t>3232</t>
+  </si>
+  <si>
+    <t>2016-04-23T16:15:04</t>
+  </si>
+  <si>
+    <t>89058766393</t>
+  </si>
+  <si>
+    <t>04:13</t>
+  </si>
+  <si>
+    <t>85.140.100.214 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T16:13:10</t>
+  </si>
+  <si>
+    <t>Республика Удмуртская</t>
+  </si>
+  <si>
+    <t>89046600666</t>
+  </si>
+  <si>
+    <t>04:09</t>
+  </si>
+  <si>
+    <t>87.117.189.1 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T16:09:55</t>
+  </si>
+  <si>
+    <t>Республика Татарстан</t>
+  </si>
+  <si>
+    <t>89645787929</t>
+  </si>
+  <si>
+    <t>04:08</t>
+  </si>
+  <si>
+    <t>185.79.102.47 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T16:08:27</t>
+  </si>
+  <si>
+    <t>89236171119</t>
+  </si>
+  <si>
+    <t>04:07</t>
+  </si>
+  <si>
+    <t>95.181.96.199 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T16:07:55</t>
+  </si>
+  <si>
+    <t>Кемеровская область</t>
+  </si>
+  <si>
+    <t>89185284456</t>
+  </si>
+  <si>
+    <t>04:06</t>
+  </si>
+  <si>
+    <t>178.76.221.104 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T16:06:47</t>
+  </si>
+  <si>
+    <t>Ростовская область</t>
+  </si>
+  <si>
+    <t>89030818381</t>
+  </si>
+  <si>
+    <t>03:37</t>
+  </si>
+  <si>
+    <t>5.141.225.229 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T15:37:07</t>
+  </si>
+  <si>
+    <t>Свердловская обл.</t>
+  </si>
+  <si>
+    <t>89858932966</t>
+  </si>
+  <si>
+    <t>03:36</t>
+  </si>
+  <si>
+    <t>77.236.248.8 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T15:36:28</t>
+  </si>
+  <si>
+    <t>89069871820</t>
+  </si>
+  <si>
+    <t>158.46.38.43 5 </t>
+  </si>
+  <si>
+    <t>2016-04-23T15:06:22</t>
+  </si>
+  <si>
+    <t>Кемеровская обл.</t>
+  </si>
+  <si>
+    <t>89826753709</t>
+  </si>
+  <si>
+    <t>02:58</t>
+  </si>
+  <si>
+    <t>188.16.45.224 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T14:58:32</t>
+  </si>
+  <si>
+    <t>89095521042</t>
+  </si>
+  <si>
+    <t>02:29</t>
+  </si>
+  <si>
+    <t>62.192.233.105 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T14:29:19</t>
+  </si>
+  <si>
+    <t>Архангельская обл.</t>
+  </si>
+  <si>
+    <t>89164970312</t>
+  </si>
+  <si>
+    <t>95.84.196.124 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T14:24:17</t>
+  </si>
+  <si>
+    <t>89051493399</t>
+  </si>
+  <si>
+    <t>02:09</t>
+  </si>
+  <si>
+    <t>109.95.252.163 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T14:09:04</t>
+  </si>
+  <si>
+    <t>Владимирская обл.</t>
+  </si>
+  <si>
+    <t>89067002571</t>
+  </si>
+  <si>
+    <t>02:01</t>
+  </si>
+  <si>
+    <t>94.29.88.150 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T14:01:08</t>
+  </si>
+  <si>
+    <t>89617166603</t>
+  </si>
+  <si>
+    <t>01:49</t>
+  </si>
+  <si>
+    <t>185.33.122.88 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T13:49:55</t>
+  </si>
+  <si>
+    <t>89096987778</t>
+  </si>
+  <si>
+    <t>01:35</t>
+  </si>
+  <si>
+    <t>46.39.244.10 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T13:35:59</t>
+  </si>
+  <si>
+    <t>89287687420</t>
+  </si>
+  <si>
+    <t>109.165.21.40 1 </t>
+  </si>
+  <si>
+    <t>89372773321</t>
+  </si>
+  <si>
+    <t>01:34</t>
+  </si>
+  <si>
+    <t>176.116.142.22 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T13:34:47</t>
+  </si>
+  <si>
+    <t>89180406065</t>
+  </si>
+  <si>
+    <t>01:26</t>
+  </si>
+  <si>
+    <t>91.105.195.232 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T13:26:38</t>
+  </si>
+  <si>
+    <t>89188934032</t>
+  </si>
+  <si>
+    <t>01:24</t>
+  </si>
+  <si>
+    <t>37.144.57.235 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T13:24:44</t>
+  </si>
+  <si>
+    <t>89262861269</t>
+  </si>
+  <si>
+    <t>01:23</t>
+  </si>
+  <si>
+    <t>83.220.43.71 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T13:23:45</t>
+  </si>
+  <si>
+    <t>89187676192</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>95.153.128.178 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T13:15:21</t>
+  </si>
+  <si>
+    <t>89198387083</t>
+  </si>
+  <si>
+    <t>01:07</t>
+  </si>
+  <si>
+    <t>217.118.81.249 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T13:07:34</t>
+  </si>
+  <si>
+    <t>Саратовская область</t>
+  </si>
+  <si>
+    <t>89295021350</t>
+  </si>
+  <si>
+    <t>12:58</t>
+  </si>
+  <si>
+    <t>89.178.6.64 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T12:58:01</t>
+  </si>
+  <si>
+    <t>89262239769</t>
+  </si>
+  <si>
+    <t>12:52</t>
+  </si>
+  <si>
+    <t>95.26.72.214 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T12:52:53</t>
+  </si>
+  <si>
+    <t>89252850399</t>
+  </si>
+  <si>
+    <t>79.165.226.127 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T12:52:42</t>
+  </si>
+  <si>
+    <t>89162822710</t>
+  </si>
+  <si>
+    <t>12:34</t>
+  </si>
+  <si>
+    <t>85.141.181.202 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T12:34:14</t>
+  </si>
+  <si>
+    <t>89600959070</t>
+  </si>
+  <si>
+    <t>12:17</t>
+  </si>
+  <si>
+    <t>91.224.52.132 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T12:17:56</t>
+  </si>
+  <si>
+    <t>Республика Марий Эл</t>
+  </si>
+  <si>
+    <t>89533941753</t>
+  </si>
+  <si>
+    <t>12:14</t>
+  </si>
+  <si>
+    <t>109.171.38.68 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T12:14:23</t>
+  </si>
+  <si>
+    <t>89041093172</t>
+  </si>
+  <si>
+    <t>11:53</t>
+  </si>
+  <si>
+    <t>176.106.67.15 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T11:53:30</t>
+  </si>
+  <si>
+    <t>Республика Коми</t>
+  </si>
+  <si>
+    <t>89158905016</t>
+  </si>
+  <si>
+    <t>11:38</t>
+  </si>
+  <si>
+    <t>62.148.129.50 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T11:38:56</t>
+  </si>
+  <si>
+    <t>Калужская обл.</t>
+  </si>
+  <si>
+    <t>89200229800</t>
+  </si>
+  <si>
+    <t>11:36</t>
+  </si>
+  <si>
+    <t>31.173.87.188 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T11:36:30</t>
+  </si>
+  <si>
+    <t>Нижегородская область</t>
+  </si>
+  <si>
+    <t>89115614939</t>
+  </si>
+  <si>
+    <t>11:34</t>
+  </si>
+  <si>
+    <t>195.239.167.126 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T11:34:40</t>
+  </si>
+  <si>
+    <t>89107890211</t>
+  </si>
+  <si>
+    <t>11:24</t>
+  </si>
+  <si>
+    <t>213.87.135.27 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T11:24:19</t>
+  </si>
+  <si>
+    <t>Смоленская обл.</t>
+  </si>
+  <si>
+    <t>89811500379</t>
+  </si>
+  <si>
+    <t>11:17</t>
+  </si>
+  <si>
+    <t>94.19.85.49 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T11:17:20</t>
+  </si>
+  <si>
+    <t>89826407777</t>
+  </si>
+  <si>
+    <t>11:14</t>
+  </si>
+  <si>
+    <t>178.212.224.99 3 </t>
+  </si>
+  <si>
+    <t>2016-04-23T11:14:38</t>
+  </si>
+  <si>
+    <t>89807129283</t>
+  </si>
+  <si>
+    <t>11:11</t>
+  </si>
+  <si>
+    <t>94.241.36.42 1 </t>
+  </si>
+  <si>
+    <t>2016-04-23T11:11:18</t>
+  </si>
+  <si>
+    <t>89186391131</t>
+  </si>
+  <si>
+    <t>22-04-2016</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>46.159.143.10 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T18:00:26</t>
+  </si>
+  <si>
+    <t>89600843170</t>
+  </si>
+  <si>
+    <t>05:57</t>
+  </si>
+  <si>
+    <t>176.52.34.139 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T17:57:51</t>
+  </si>
+  <si>
+    <t>89024430846</t>
+  </si>
+  <si>
+    <t>5.141.123.246 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T17:57:35</t>
+  </si>
+  <si>
+    <t>89058611938</t>
+  </si>
+  <si>
+    <t>05:51</t>
+  </si>
+  <si>
+    <t>5.141.194.1 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T17:51:43</t>
+  </si>
+  <si>
+    <t>89160262814</t>
+  </si>
+  <si>
+    <t>05:42</t>
+  </si>
+  <si>
+    <t>37.209.237.19 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T17:42:43</t>
+  </si>
+  <si>
+    <t>89377392687</t>
+  </si>
+  <si>
+    <t>05:39</t>
+  </si>
+  <si>
+    <t>178.217.56.246 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T17:39:48</t>
+  </si>
+  <si>
+    <t>89094279531</t>
+  </si>
+  <si>
+    <t>05:32</t>
+  </si>
+  <si>
+    <t>31.23.48.19 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T17:32:09</t>
+  </si>
+  <si>
+    <t>Ростовская обл.</t>
+  </si>
+  <si>
+    <t>89117722770</t>
+  </si>
+  <si>
+    <t>05:26</t>
+  </si>
+  <si>
+    <t>217.15.28.34 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T17:26:24</t>
+  </si>
+  <si>
+    <t>89538229421</t>
+  </si>
+  <si>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>92.248.238.119 2 </t>
+  </si>
+  <si>
+    <t>2016-04-22T17:15:08</t>
+  </si>
+  <si>
+    <t>89538229481</t>
+  </si>
+  <si>
+    <t>05:12</t>
+  </si>
+  <si>
+    <t>89147097828</t>
+  </si>
+  <si>
+    <t>04:38</t>
+  </si>
+  <si>
+    <t>77.35.34.77 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T16:38:02</t>
+  </si>
+  <si>
+    <t>Приморский край</t>
+  </si>
+  <si>
+    <t>89272687900</t>
+  </si>
+  <si>
+    <t>04:28</t>
+  </si>
+  <si>
+    <t>95.67.202.152 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T16:28:33</t>
+  </si>
+  <si>
+    <t>Самарская обл.</t>
+  </si>
+  <si>
+    <t>89505018824</t>
+  </si>
+  <si>
+    <t>04:27</t>
+  </si>
+  <si>
+    <t>176.59.209.5 1 </t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>2016-04-22T16:27:56</t>
+  </si>
+  <si>
+    <t>Ханты - Мансийский - Югра АО</t>
+  </si>
+  <si>
+    <t>89204303431</t>
+  </si>
+  <si>
+    <t>04:19</t>
+  </si>
+  <si>
+    <t>195.98.66.96 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T16:19:32</t>
+  </si>
+  <si>
+    <t>Воронежская область</t>
+  </si>
+  <si>
+    <t>89042151255</t>
+  </si>
+  <si>
+    <t>178.69.51.182 1 </t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург и Ленинградская область</t>
+  </si>
+  <si>
+    <t>89167241368</t>
+  </si>
+  <si>
+    <t>04:10</t>
+  </si>
+  <si>
+    <t>31.173.85.28 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T16:10:59</t>
+  </si>
+  <si>
+    <t>89529664536</t>
+  </si>
+  <si>
+    <t>03:46</t>
+  </si>
+  <si>
+    <t>188.254.110.190 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T15:46:36</t>
+  </si>
+  <si>
+    <t>Брянская обл.</t>
+  </si>
+  <si>
+    <t>89112394009</t>
+  </si>
+  <si>
+    <t>03:33</t>
+  </si>
+  <si>
+    <t>5.17.181.66 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T15:33:44</t>
+  </si>
+  <si>
+    <t>89265953548</t>
+  </si>
+  <si>
+    <t>03:16</t>
+  </si>
+  <si>
+    <t>176.59.51.207 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T15:16:01</t>
+  </si>
+  <si>
+    <t>89122442202</t>
+  </si>
+  <si>
+    <t>03:09</t>
+  </si>
+  <si>
+    <t>217.119.85.114 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T15:09:09</t>
+  </si>
+  <si>
+    <t>89780591422</t>
+  </si>
+  <si>
+    <t>195.158.232.240 2 </t>
+  </si>
+  <si>
+    <t>2016-04-22T15:01:11</t>
+  </si>
+  <si>
+    <t>89787398574</t>
+  </si>
+  <si>
+    <t>02:56</t>
+  </si>
+  <si>
+    <t>31.40.132.121 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T14:56:28</t>
+  </si>
+  <si>
+    <t>89152499121</t>
+  </si>
+  <si>
+    <t>02:50</t>
+  </si>
+  <si>
+    <t>176.195.83.53 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T14:50:50</t>
+  </si>
+  <si>
+    <t>89166824414</t>
+  </si>
+  <si>
+    <t>02:36</t>
+  </si>
+  <si>
+    <t>5.134.218.222 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T14:36:52</t>
+  </si>
+  <si>
+    <t>89315868601</t>
+  </si>
+  <si>
+    <t>02:32</t>
+  </si>
+  <si>
+    <t>109.167.224.30 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T14:32:49</t>
+  </si>
+  <si>
+    <t>89313685696</t>
+  </si>
+  <si>
+    <t>02:30</t>
+  </si>
+  <si>
+    <t>85.114.18.46 1 </t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2016-04-22T14:30:15</t>
+  </si>
+  <si>
+    <t>89258004195</t>
+  </si>
+  <si>
+    <t>02:17</t>
+  </si>
+  <si>
+    <t>81.94.153.4 3 </t>
+  </si>
+  <si>
+    <t>2016-04-22T14:17:08</t>
+  </si>
+  <si>
+    <t>89384821440</t>
+  </si>
+  <si>
+    <t>217.147.83.43 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T14:15:28</t>
+  </si>
+  <si>
+    <t>89818290063</t>
+  </si>
+  <si>
+    <t>02:14</t>
+  </si>
+  <si>
+    <t>109.167.200.251 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T14:14:15</t>
+  </si>
+  <si>
+    <t>89817319101</t>
+  </si>
+  <si>
+    <t>38.126.136.142 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T14:05:50</t>
+  </si>
+  <si>
+    <t>89011980720</t>
+  </si>
+  <si>
+    <t>02:03</t>
+  </si>
+  <si>
+    <t>128.74.57.160 1 </t>
+  </si>
+  <si>
+    <t>Тульская область</t>
+  </si>
+  <si>
+    <t>89102802280</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>195.98.76.252 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T14:00:13</t>
+  </si>
+  <si>
+    <t>Воронежская обл.</t>
+  </si>
+  <si>
+    <t>89260894445</t>
+  </si>
+  <si>
+    <t>94.253.15.13 2 </t>
+  </si>
+  <si>
+    <t>2016-04-22T13:55:16</t>
+  </si>
+  <si>
+    <t>89873115849</t>
+  </si>
+  <si>
+    <t>01:52</t>
+  </si>
+  <si>
+    <t>88.147.242.204 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T13:52:19</t>
+  </si>
+  <si>
+    <t>89035666755</t>
+  </si>
+  <si>
+    <t>31.173.81.236 1 </t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>2016-04-22T13:50:25</t>
+  </si>
+  <si>
+    <t>UTC+2</t>
+  </si>
+  <si>
+    <t>89778327262</t>
+  </si>
+  <si>
+    <t>89199132406</t>
+  </si>
+  <si>
+    <t>01:43</t>
+  </si>
+  <si>
+    <t>78.85.150.94 1 </t>
+  </si>
+  <si>
+    <t>3858</t>
+  </si>
+  <si>
+    <t>2016-04-22T13:43:57</t>
+  </si>
+  <si>
+    <t>Удмуртская Республика</t>
+  </si>
+  <si>
+    <t>89209241224</t>
+  </si>
+  <si>
+    <t>213.167.194.22 2 </t>
+  </si>
+  <si>
+    <t>2016-04-22T13:43:17</t>
+  </si>
+  <si>
+    <t>Владимирская область</t>
+  </si>
+  <si>
+    <t>89066127999</t>
+  </si>
+  <si>
+    <t>01:41</t>
+  </si>
+  <si>
+    <t>2016-04-22T13:41:52</t>
+  </si>
+  <si>
+    <t>89130054191</t>
+  </si>
+  <si>
+    <t>11:15</t>
+  </si>
+  <si>
+    <t>109.202.17.113 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T11:15:26</t>
+  </si>
+  <si>
+    <t>Новосибирская область</t>
+  </si>
+  <si>
+    <t>89235322413</t>
+  </si>
+  <si>
+    <t>11:09</t>
+  </si>
+  <si>
+    <t>176.197.228.130 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T11:09:26</t>
+  </si>
+  <si>
+    <t>89165556375</t>
+  </si>
+  <si>
+    <t>11:06</t>
+  </si>
+  <si>
+    <t>188.126.47.209 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T11:06:53</t>
+  </si>
+  <si>
+    <t>89534483784</t>
+  </si>
+  <si>
+    <t>89.151.191.81 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T11:02:21</t>
+  </si>
+  <si>
+    <t>Чувашская Республика</t>
+  </si>
+  <si>
+    <t>89636014143</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>109.252.61.133 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T11:00:30</t>
+  </si>
+  <si>
+    <t>89197177737</t>
+  </si>
+  <si>
+    <t>10:59</t>
+  </si>
+  <si>
+    <t>46.146.213.100 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:59:54</t>
+  </si>
+  <si>
+    <t>89235792921</t>
+  </si>
+  <si>
+    <t>10:57</t>
+  </si>
+  <si>
+    <t>185.33.238.54 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:57:46</t>
+  </si>
+  <si>
+    <t>UTC+12</t>
+  </si>
+  <si>
+    <t>89688238494</t>
+  </si>
+  <si>
+    <t>31.173.87.139 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:57:22</t>
+  </si>
+  <si>
+    <t>89117150760</t>
+  </si>
+  <si>
+    <t>10:56</t>
+  </si>
+  <si>
+    <t>81.23.127.14 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:56:47</t>
+  </si>
+  <si>
+    <t>89607081114</t>
+  </si>
+  <si>
+    <t>10:55</t>
+  </si>
+  <si>
+    <t>84.42.19.120 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:55:00</t>
+  </si>
+  <si>
+    <t>Тверская обл.</t>
+  </si>
+  <si>
+    <t>89603884903</t>
+  </si>
+  <si>
+    <t>10:53</t>
+  </si>
+  <si>
+    <t>77.41.165.11 2 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:53:18</t>
+  </si>
+  <si>
+    <t>Республика Башкортостан</t>
+  </si>
+  <si>
+    <t>89199999392</t>
+  </si>
+  <si>
+    <t>10:44</t>
+  </si>
+  <si>
+    <t>89.189.97.171 3 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:44:03</t>
+  </si>
+  <si>
+    <t>89043310663</t>
+  </si>
+  <si>
+    <t>10:43</t>
+  </si>
+  <si>
+    <t>77.72.126.174 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:43:54</t>
+  </si>
+  <si>
+    <t>89600302907</t>
+  </si>
+  <si>
+    <t>10:41</t>
+  </si>
+  <si>
+    <t>94.180.167.91 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:41:21</t>
+  </si>
+  <si>
+    <t>89129390837</t>
+  </si>
+  <si>
+    <t>10:39</t>
+  </si>
+  <si>
+    <t>178.72.100.153 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:39:26</t>
+  </si>
+  <si>
+    <t>89052905777</t>
+  </si>
+  <si>
+    <t>10:38</t>
+  </si>
+  <si>
+    <t>185.10.3.133 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:38:39</t>
+  </si>
+  <si>
+    <t>Новгородская обл.</t>
+  </si>
+  <si>
+    <t>89258331652</t>
+  </si>
+  <si>
+    <t>91.238.80.149 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:38:11</t>
+  </si>
+  <si>
+    <t>89043815446</t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>178.212.224.80 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:35:17</t>
+  </si>
+  <si>
+    <t>89054691617</t>
+  </si>
+  <si>
+    <t>46.45.198.126 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:30:25</t>
+  </si>
+  <si>
+    <t>89513169730</t>
+  </si>
+  <si>
+    <t>10:21</t>
+  </si>
+  <si>
+    <t>109.127.174.231 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:21:27</t>
+  </si>
+  <si>
+    <t>Курская обл.</t>
+  </si>
+  <si>
+    <t>89619310709</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>178.44.141.168 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:20:24</t>
+  </si>
+  <si>
+    <t>89144102660</t>
+  </si>
+  <si>
+    <t>91.227.23.2 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:20:02</t>
+  </si>
+  <si>
+    <t>Хабаровский край</t>
+  </si>
+  <si>
+    <t>89056524804</t>
+  </si>
+  <si>
+    <t>10:19</t>
+  </si>
+  <si>
+    <t>195.98.69.155 3 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:19:31</t>
+  </si>
+  <si>
+    <t>89621934513</t>
+  </si>
+  <si>
+    <t>212.3.145.11 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:16:16</t>
+  </si>
+  <si>
+    <t>89152070807</t>
+  </si>
+  <si>
+    <t>10:13</t>
+  </si>
+  <si>
+    <t>31.173.85.77 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:13:43</t>
+  </si>
+  <si>
+    <t>89126944555</t>
+  </si>
+  <si>
+    <t>10:11</t>
+  </si>
+  <si>
+    <t>193.104.128.156 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:11:57</t>
+  </si>
+  <si>
+    <t>89531752608</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>85.143.130.150 1 </t>
+  </si>
+  <si>
+    <t>2319</t>
+  </si>
+  <si>
+    <t>2016-04-22T10:10:39</t>
+  </si>
+  <si>
+    <t>89630554977</t>
+  </si>
+  <si>
+    <t>94.190.26.120 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:10:23</t>
+  </si>
+  <si>
+    <t>89022635667</t>
+  </si>
+  <si>
+    <t>178.75.32.9 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:10:01</t>
+  </si>
+  <si>
+    <t>89267518100</t>
+  </si>
+  <si>
+    <t>10:09</t>
+  </si>
+  <si>
+    <t>86.62.120.66 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:09:13</t>
+  </si>
+  <si>
+    <t>89257042276</t>
+  </si>
+  <si>
+    <t>10:07</t>
+  </si>
+  <si>
+    <t>83.143.240.20 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:07:07</t>
+  </si>
+  <si>
+    <t>89250081103</t>
+  </si>
+  <si>
+    <t>10:06</t>
+  </si>
+  <si>
+    <t>194.154.64.5 3 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:06:18</t>
+  </si>
+  <si>
+    <t>89190826610</t>
+  </si>
+  <si>
+    <t>10:03</t>
+  </si>
+  <si>
+    <t>212.12.14.92 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:03:42</t>
+  </si>
+  <si>
+    <t>Тульская обл.</t>
+  </si>
+  <si>
+    <t>89178901979</t>
+  </si>
+  <si>
+    <t>10:02</t>
+  </si>
+  <si>
+    <t>87.117.176.149 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:02:36</t>
+  </si>
+  <si>
+    <t>Республика Татарстан (Татарстан)</t>
+  </si>
+  <si>
+    <t>89514927854</t>
+  </si>
+  <si>
+    <t>10:01</t>
+  </si>
+  <si>
+    <t>87.117.38.177 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:01:22</t>
+  </si>
+  <si>
+    <t>89634716140</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>77.222.111.146 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:00:28</t>
+  </si>
+  <si>
+    <t>Челябинская обл.</t>
+  </si>
+  <si>
+    <t>89680725427</t>
+  </si>
+  <si>
+    <t>83.220.239.115 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T10:00:07</t>
+  </si>
+  <si>
+    <t>89200153335</t>
+  </si>
+  <si>
+    <t>81.4.218.192 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T09:59:09</t>
+  </si>
+  <si>
+    <t>89104637180</t>
+  </si>
+  <si>
+    <t>09:56</t>
+  </si>
+  <si>
+    <t>195.68.134.178 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T09:56:23</t>
+  </si>
+  <si>
+    <t>89262317289</t>
+  </si>
+  <si>
+    <t>09:49</t>
+  </si>
+  <si>
+    <t>109.252.88.80 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T09:49:27</t>
+  </si>
+  <si>
+    <t>89634593333</t>
+  </si>
+  <si>
+    <t>08:21</t>
+  </si>
+  <si>
+    <t>92.255.164.80 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T08:21:03</t>
+  </si>
+  <si>
+    <t>Тюменская обл.</t>
+  </si>
+  <si>
+    <t>89688400612</t>
+  </si>
+  <si>
+    <t>08:12</t>
+  </si>
+  <si>
+    <t>188.162.229.1 1 </t>
+  </si>
+  <si>
+    <t>89103860291</t>
+  </si>
+  <si>
+    <t>08:08</t>
+  </si>
+  <si>
+    <t>94.100.94.206 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T08:08:58</t>
+  </si>
+  <si>
+    <t>Нижегородская обл.</t>
+  </si>
+  <si>
+    <t>89683264684</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>178.47.77.79 1 </t>
+  </si>
+  <si>
+    <t>89000423541</t>
+  </si>
+  <si>
+    <t>08:04</t>
+  </si>
+  <si>
+    <t>5.166.36.50 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T08:04:11</t>
+  </si>
+  <si>
+    <t>89651063090</t>
+  </si>
+  <si>
+    <t>08:03</t>
+  </si>
+  <si>
+    <t>91.211.104.204 2 </t>
+  </si>
+  <si>
+    <t>2016-04-22T08:03:39</t>
+  </si>
+  <si>
+    <t>89029196505</t>
+  </si>
+  <si>
+    <t>07:56</t>
+  </si>
+  <si>
+    <t>92.126.85.66 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:56:33</t>
+  </si>
+  <si>
+    <t>89090009909</t>
+  </si>
+  <si>
+    <t>07:51</t>
+  </si>
+  <si>
+    <t>62.117.124.82 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:51:13</t>
+  </si>
+  <si>
+    <t>89022535559</t>
+  </si>
+  <si>
+    <t>07:50</t>
+  </si>
+  <si>
+    <t>212.193.94.2 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:50:55</t>
+  </si>
+  <si>
+    <t>89683361611</t>
+  </si>
+  <si>
+    <t>5.18.35.75 1 </t>
+  </si>
+  <si>
+    <t>89688524174</t>
+  </si>
+  <si>
+    <t>07:49</t>
+  </si>
+  <si>
+    <t>176.114.190.130 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:49:01</t>
+  </si>
+  <si>
+    <t>89220281177</t>
+  </si>
+  <si>
+    <t>07:45</t>
+  </si>
+  <si>
+    <t>31.173.121.160 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:45:54</t>
+  </si>
+  <si>
+    <t>89158591661</t>
+  </si>
+  <si>
+    <t>195.34.239.218 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:45:53</t>
+  </si>
+  <si>
+    <t>Липецкая обл.</t>
+  </si>
+  <si>
+    <t>89209427774</t>
+  </si>
+  <si>
+    <t>84.53.220.226 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:45:23</t>
+  </si>
+  <si>
+    <t>89272665052</t>
+  </si>
+  <si>
+    <t>85.113.58.93 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:45:14</t>
+  </si>
+  <si>
+    <t>89166065903</t>
+  </si>
+  <si>
+    <t>07:42</t>
+  </si>
+  <si>
+    <t>109.188.89.156 2 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:42:45</t>
+  </si>
+  <si>
+    <t>89080511871</t>
+  </si>
+  <si>
+    <t>94.24.250.70 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:42:06</t>
+  </si>
+  <si>
+    <t>89112777740</t>
+  </si>
+  <si>
+    <t>07:41</t>
+  </si>
+  <si>
+    <t>78.36.73.148 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:41:28</t>
+  </si>
+  <si>
+    <t>89536896000</t>
+  </si>
+  <si>
+    <t>85.93.53.157 2 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:41:00</t>
+  </si>
+  <si>
+    <t>Кировская обл.</t>
+  </si>
+  <si>
+    <t>89254052643</t>
+  </si>
+  <si>
+    <t>07:38</t>
+  </si>
+  <si>
+    <t>2016-04-22T07:38:36</t>
+  </si>
+  <si>
+    <t>89027250240</t>
+  </si>
+  <si>
+    <t>07:36</t>
+  </si>
+  <si>
+    <t>78.132.136.20 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:36:49</t>
+  </si>
+  <si>
+    <t>Тамбовская область</t>
+  </si>
+  <si>
+    <t>89614635599</t>
+  </si>
+  <si>
+    <t>07:35</t>
+  </si>
+  <si>
+    <t>91.207.136.220 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:35:09</t>
+  </si>
+  <si>
+    <t>89181913919</t>
+  </si>
+  <si>
+    <t>07:34</t>
+  </si>
+  <si>
+    <t>95.153.135.110 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:34:57</t>
+  </si>
+  <si>
+    <t>89688522265</t>
+  </si>
+  <si>
+    <t>176.209.45.80 1 </t>
+  </si>
+  <si>
+    <t>89220080068</t>
+  </si>
+  <si>
+    <t>95.129.180.65 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:34:25</t>
+  </si>
+  <si>
+    <t>Тюменская область</t>
+  </si>
+  <si>
+    <t>89688400616</t>
+  </si>
+  <si>
+    <t>07:32</t>
+  </si>
+  <si>
+    <t>94.243.57.111 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:32:01</t>
+  </si>
+  <si>
+    <t>89278971775</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>83.69.178.26 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:30:36</t>
+  </si>
+  <si>
+    <t>89629599191</t>
+  </si>
+  <si>
+    <t>07:28</t>
+  </si>
+  <si>
+    <t>195.239.5.130 3 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:28:01</t>
+  </si>
+  <si>
+    <t>89255078765</t>
+  </si>
+  <si>
+    <t>07:26</t>
+  </si>
+  <si>
+    <t>82.138.17.170 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:26:50</t>
+  </si>
+  <si>
+    <t>89871886968</t>
+  </si>
+  <si>
+    <t>07:24</t>
+  </si>
+  <si>
+    <t>85.140.0.190 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:24:51</t>
+  </si>
+  <si>
+    <t>89192825823</t>
+  </si>
+  <si>
+    <t>07:21</t>
+  </si>
+  <si>
+    <t>79.120.119.138 2 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:21:31</t>
+  </si>
+  <si>
+    <t>Белгородская обл.</t>
+  </si>
+  <si>
+    <t>89109720119</t>
+  </si>
+  <si>
+    <t>07:17</t>
+  </si>
+  <si>
+    <t>83.220.236.75 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:17:13</t>
+  </si>
+  <si>
+    <t>89226153592</t>
+  </si>
+  <si>
+    <t>07:13</t>
+  </si>
+  <si>
+    <t>79.172.46.214 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T07:13:35</t>
+  </si>
+  <si>
+    <t>89041796217</t>
+  </si>
+  <si>
+    <t>185.60.215.176 1 </t>
+  </si>
+  <si>
+    <t>89619406127</t>
+  </si>
+  <si>
+    <t>05:59</t>
+  </si>
+  <si>
+    <t>85.192.131.218 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T05:59:11</t>
+  </si>
+  <si>
+    <t>89836113000</t>
+  </si>
+  <si>
+    <t>05:50</t>
+  </si>
+  <si>
+    <t>91.197.21.76 2 </t>
+  </si>
+  <si>
+    <t>2016-04-22T05:50:01</t>
+  </si>
+  <si>
+    <t>89250206471</t>
+  </si>
+  <si>
+    <t>05:43</t>
+  </si>
+  <si>
+    <t>213.87.155.190 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T05:43:05</t>
+  </si>
+  <si>
+    <t>89236113000</t>
+  </si>
+  <si>
+    <t>05:34</t>
+  </si>
+  <si>
+    <t>89069428860</t>
+  </si>
+  <si>
+    <t>176.212.114.79 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T05:32:47</t>
+  </si>
+  <si>
+    <t>Алтайский край</t>
+  </si>
+  <si>
+    <t>89227265829</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>62.192.38.186 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T05:30:58</t>
+  </si>
+  <si>
+    <t>89269268255</t>
+  </si>
+  <si>
+    <t>05:29</t>
+  </si>
+  <si>
+    <t>188.191.115.210 1 </t>
+  </si>
+  <si>
+    <t>2016-04-22T05:29:47</t>
   </si>
 </sst>
 </file>
@@ -252,11 +2535,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -264,28 +2550,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -293,16 +2582,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -310,11 +2599,14 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
@@ -322,16 +2614,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -339,11 +2631,14 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
@@ -351,16 +2646,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -368,11 +2663,14 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
@@ -380,16 +2678,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -397,11 +2695,14 @@
       <c r="G6" t="s">
         <v>5</v>
       </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
         <v>4</v>
@@ -409,28 +2710,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
         <v>4</v>
@@ -438,28 +2742,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
         <v>4</v>
@@ -467,28 +2774,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
         <v>4</v>
@@ -496,16 +2806,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -513,11 +2823,14 @@
       <c r="G10" t="s">
         <v>5</v>
       </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
         <v>4</v>
@@ -525,16 +2838,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -542,11 +2855,14 @@
       <c r="G11" t="s">
         <v>4</v>
       </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
         <v>4</v>
@@ -554,16 +2870,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -571,11 +2887,14 @@
       <c r="G12" t="s">
         <v>4</v>
       </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
         <v>4</v>
@@ -583,16 +2902,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -600,13 +2919,5872 @@
       <c r="G13" t="s">
         <v>5</v>
       </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" t="s">
+        <v>149</v>
+      </c>
+      <c r="K31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>154</v>
+      </c>
+      <c r="K32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" t="s">
+        <v>162</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" t="s">
+        <v>168</v>
+      </c>
+      <c r="K35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" t="s">
+        <v>172</v>
+      </c>
+      <c r="K36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>180</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>154</v>
+      </c>
+      <c r="K38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" t="s">
+        <v>185</v>
+      </c>
+      <c r="K39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>191</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>195</v>
+      </c>
+      <c r="I41" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" t="s">
+        <v>196</v>
+      </c>
+      <c r="K41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" t="s">
+        <v>201</v>
+      </c>
+      <c r="K42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" t="s">
+        <v>210</v>
+      </c>
+      <c r="K44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" t="s">
+        <v>214</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" t="s">
+        <v>215</v>
+      </c>
+      <c r="K45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>220</v>
+      </c>
+      <c r="K46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" t="s">
+        <v>228</v>
+      </c>
+      <c r="K48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" t="s">
+        <v>232</v>
+      </c>
+      <c r="I49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" t="s">
+        <v>236</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" t="s">
+        <v>237</v>
+      </c>
+      <c r="K50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" t="s">
+        <v>240</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>244</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" t="s">
+        <v>249</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" t="s">
+        <v>251</v>
+      </c>
+      <c r="D54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>253</v>
+      </c>
+      <c r="I54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" t="s">
+        <v>228</v>
+      </c>
+      <c r="K54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>257</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J56" t="s">
+        <v>215</v>
+      </c>
+      <c r="K56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" t="s">
+        <v>263</v>
+      </c>
+      <c r="I57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" t="s">
+        <v>103</v>
+      </c>
+      <c r="K57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>267</v>
+      </c>
+      <c r="I58" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" t="s">
+        <v>154</v>
+      </c>
+      <c r="K58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" t="s">
+        <v>270</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>271</v>
+      </c>
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" t="s">
+        <v>215</v>
+      </c>
+      <c r="K59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>272</v>
+      </c>
+      <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>275</v>
+      </c>
+      <c r="I60" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" t="s">
+        <v>278</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" t="s">
+        <v>279</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" t="s">
+        <v>140</v>
+      </c>
+      <c r="K61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>280</v>
+      </c>
+      <c r="B62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" t="s">
+        <v>281</v>
+      </c>
+      <c r="D62" t="s">
+        <v>282</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s">
+        <v>283</v>
+      </c>
+      <c r="I62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" t="s">
+        <v>284</v>
+      </c>
+      <c r="K62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
+        <v>286</v>
+      </c>
+      <c r="D63" t="s">
+        <v>287</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" t="s">
+        <v>288</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+      <c r="J63" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>289</v>
+      </c>
+      <c r="B64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D64" t="s">
+        <v>291</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" t="s">
+        <v>292</v>
+      </c>
+      <c r="I64" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>293</v>
+      </c>
+      <c r="B65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" t="s">
+        <v>134</v>
+      </c>
+      <c r="H65" t="s">
+        <v>295</v>
+      </c>
+      <c r="I65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>296</v>
+      </c>
+      <c r="B66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" t="s">
+        <v>297</v>
+      </c>
+      <c r="D66" t="s">
+        <v>298</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" t="s">
+        <v>299</v>
+      </c>
+      <c r="I66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>300</v>
+      </c>
+      <c r="B67" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" t="s">
+        <v>301</v>
+      </c>
+      <c r="D67" t="s">
+        <v>302</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" t="s">
+        <v>303</v>
+      </c>
+      <c r="I67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" t="s">
+        <v>304</v>
+      </c>
+      <c r="K67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>305</v>
+      </c>
+      <c r="B68" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" t="s">
+        <v>306</v>
+      </c>
+      <c r="D68" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" t="s">
+        <v>308</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>309</v>
+      </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" t="s">
+        <v>311</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" t="s">
+        <v>312</v>
+      </c>
+      <c r="I69" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" t="s">
+        <v>313</v>
+      </c>
+      <c r="K69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" t="s">
+        <v>315</v>
+      </c>
+      <c r="D70" t="s">
+        <v>316</v>
+      </c>
+      <c r="E70" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" t="s">
+        <v>317</v>
+      </c>
+      <c r="I70" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70" t="s">
+        <v>318</v>
+      </c>
+      <c r="K70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" t="s">
+        <v>321</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" t="s">
+        <v>322</v>
+      </c>
+      <c r="I71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" t="s">
+        <v>323</v>
+      </c>
+      <c r="K71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>324</v>
+      </c>
+      <c r="B72" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" t="s">
+        <v>325</v>
+      </c>
+      <c r="D72" t="s">
+        <v>326</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" t="s">
+        <v>327</v>
+      </c>
+      <c r="I72" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>328</v>
+      </c>
+      <c r="B73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" t="s">
+        <v>329</v>
+      </c>
+      <c r="D73" t="s">
+        <v>330</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" t="s">
+        <v>331</v>
+      </c>
+      <c r="I73" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73" t="s">
+        <v>332</v>
+      </c>
+      <c r="K73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>333</v>
+      </c>
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" t="s">
+        <v>334</v>
+      </c>
+      <c r="D74" t="s">
+        <v>335</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" t="s">
+        <v>336</v>
+      </c>
+      <c r="I74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J74" t="s">
+        <v>149</v>
+      </c>
+      <c r="K74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>337</v>
+      </c>
+      <c r="B75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" t="s">
+        <v>338</v>
+      </c>
+      <c r="D75" t="s">
+        <v>339</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" t="s">
+        <v>340</v>
+      </c>
+      <c r="I75" t="s">
+        <v>51</v>
+      </c>
+      <c r="J75" t="s">
+        <v>60</v>
+      </c>
+      <c r="K75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>341</v>
+      </c>
+      <c r="B76" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" t="s">
+        <v>342</v>
+      </c>
+      <c r="D76" t="s">
+        <v>343</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>344</v>
+      </c>
+      <c r="I76" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" t="s">
+        <v>318</v>
+      </c>
+      <c r="K76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" t="s">
+        <v>346</v>
+      </c>
+      <c r="C77" t="s">
+        <v>347</v>
+      </c>
+      <c r="D77" t="s">
+        <v>348</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" t="s">
+        <v>349</v>
+      </c>
+      <c r="I77" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" t="s">
+        <v>154</v>
+      </c>
+      <c r="K77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>350</v>
+      </c>
+      <c r="B78" t="s">
+        <v>346</v>
+      </c>
+      <c r="C78" t="s">
+        <v>351</v>
+      </c>
+      <c r="D78" t="s">
+        <v>352</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" t="s">
+        <v>353</v>
+      </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" t="s">
+        <v>201</v>
+      </c>
+      <c r="K78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>354</v>
+      </c>
+      <c r="B79" t="s">
+        <v>346</v>
+      </c>
+      <c r="C79" t="s">
+        <v>351</v>
+      </c>
+      <c r="D79" t="s">
+        <v>355</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79" t="s">
+        <v>356</v>
+      </c>
+      <c r="I79" t="s">
+        <v>51</v>
+      </c>
+      <c r="J79" t="s">
+        <v>220</v>
+      </c>
+      <c r="K79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80" t="s">
+        <v>346</v>
+      </c>
+      <c r="C80" t="s">
+        <v>358</v>
+      </c>
+      <c r="D80" t="s">
+        <v>359</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>360</v>
+      </c>
+      <c r="I80" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80" t="s">
+        <v>52</v>
+      </c>
+      <c r="K80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>361</v>
+      </c>
+      <c r="B81" t="s">
+        <v>346</v>
+      </c>
+      <c r="C81" t="s">
+        <v>362</v>
+      </c>
+      <c r="D81" t="s">
+        <v>363</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" t="s">
+        <v>364</v>
+      </c>
+      <c r="I81" t="s">
+        <v>51</v>
+      </c>
+      <c r="J81" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>365</v>
+      </c>
+      <c r="B82" t="s">
+        <v>346</v>
+      </c>
+      <c r="C82" t="s">
+        <v>366</v>
+      </c>
+      <c r="D82" t="s">
+        <v>367</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" t="s">
+        <v>368</v>
+      </c>
+      <c r="I82" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+      <c r="K82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>369</v>
+      </c>
+      <c r="B83" t="s">
+        <v>346</v>
+      </c>
+      <c r="C83" t="s">
+        <v>370</v>
+      </c>
+      <c r="D83" t="s">
+        <v>371</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>372</v>
+      </c>
+      <c r="I83" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" t="s">
+        <v>373</v>
+      </c>
+      <c r="K83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>374</v>
+      </c>
+      <c r="B84" t="s">
+        <v>346</v>
+      </c>
+      <c r="C84" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" t="s">
+        <v>376</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" t="s">
+        <v>377</v>
+      </c>
+      <c r="I84" t="s">
+        <v>7</v>
+      </c>
+      <c r="J84" t="s">
+        <v>149</v>
+      </c>
+      <c r="K84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" t="s">
+        <v>346</v>
+      </c>
+      <c r="C85" t="s">
+        <v>379</v>
+      </c>
+      <c r="D85" t="s">
+        <v>380</v>
+      </c>
+      <c r="E85" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" t="s">
+        <v>381</v>
+      </c>
+      <c r="I85" t="s">
+        <v>51</v>
+      </c>
+      <c r="J85" t="s">
+        <v>220</v>
+      </c>
+      <c r="K85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>382</v>
+      </c>
+      <c r="B86" t="s">
+        <v>346</v>
+      </c>
+      <c r="C86" t="s">
+        <v>383</v>
+      </c>
+      <c r="D86" t="s">
+        <v>380</v>
+      </c>
+      <c r="E86" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" t="s">
+        <v>51</v>
+      </c>
+      <c r="J86" t="s">
+        <v>220</v>
+      </c>
+      <c r="K86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>384</v>
+      </c>
+      <c r="B87" t="s">
+        <v>346</v>
+      </c>
+      <c r="C87" t="s">
+        <v>385</v>
+      </c>
+      <c r="D87" t="s">
+        <v>386</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" t="s">
+        <v>387</v>
+      </c>
+      <c r="I87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J87" t="s">
+        <v>388</v>
+      </c>
+      <c r="K87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>389</v>
+      </c>
+      <c r="B88" t="s">
+        <v>346</v>
+      </c>
+      <c r="C88" t="s">
+        <v>390</v>
+      </c>
+      <c r="D88" t="s">
+        <v>391</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" t="s">
+        <v>392</v>
+      </c>
+      <c r="I88" t="s">
+        <v>93</v>
+      </c>
+      <c r="J88" t="s">
+        <v>393</v>
+      </c>
+      <c r="K88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>394</v>
+      </c>
+      <c r="B89" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89" t="s">
+        <v>395</v>
+      </c>
+      <c r="D89" t="s">
+        <v>396</v>
+      </c>
+      <c r="E89" t="s">
+        <v>397</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>398</v>
+      </c>
+      <c r="I89" t="s">
+        <v>51</v>
+      </c>
+      <c r="J89" t="s">
+        <v>399</v>
+      </c>
+      <c r="K89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>400</v>
+      </c>
+      <c r="B90" t="s">
+        <v>346</v>
+      </c>
+      <c r="C90" t="s">
+        <v>401</v>
+      </c>
+      <c r="D90" t="s">
+        <v>402</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>91</v>
+      </c>
+      <c r="H90" t="s">
+        <v>403</v>
+      </c>
+      <c r="I90" t="s">
+        <v>93</v>
+      </c>
+      <c r="J90" t="s">
+        <v>404</v>
+      </c>
+      <c r="K90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>405</v>
+      </c>
+      <c r="B91" t="s">
+        <v>346</v>
+      </c>
+      <c r="C91" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" t="s">
+        <v>406</v>
+      </c>
+      <c r="E91" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" t="s">
+        <v>407</v>
+      </c>
+      <c r="K91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>408</v>
+      </c>
+      <c r="B92" t="s">
+        <v>346</v>
+      </c>
+      <c r="C92" t="s">
+        <v>409</v>
+      </c>
+      <c r="D92" t="s">
+        <v>410</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>91</v>
+      </c>
+      <c r="H92" t="s">
+        <v>411</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>412</v>
+      </c>
+      <c r="B93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C93" t="s">
+        <v>413</v>
+      </c>
+      <c r="D93" t="s">
+        <v>414</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93" t="s">
+        <v>415</v>
+      </c>
+      <c r="I93" t="s">
+        <v>93</v>
+      </c>
+      <c r="J93" t="s">
+        <v>416</v>
+      </c>
+      <c r="K93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>417</v>
+      </c>
+      <c r="B94" t="s">
+        <v>346</v>
+      </c>
+      <c r="C94" t="s">
+        <v>418</v>
+      </c>
+      <c r="D94" t="s">
+        <v>419</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" t="s">
+        <v>420</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" t="s">
+        <v>149</v>
+      </c>
+      <c r="K94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>421</v>
+      </c>
+      <c r="B95" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" t="s">
+        <v>422</v>
+      </c>
+      <c r="D95" t="s">
+        <v>423</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>4</v>
+      </c>
+      <c r="H95" t="s">
+        <v>424</v>
+      </c>
+      <c r="I95" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>425</v>
+      </c>
+      <c r="B96" t="s">
+        <v>346</v>
+      </c>
+      <c r="C96" t="s">
+        <v>426</v>
+      </c>
+      <c r="D96" t="s">
+        <v>427</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>428</v>
+      </c>
+      <c r="I96" t="s">
+        <v>51</v>
+      </c>
+      <c r="J96" t="s">
+        <v>60</v>
+      </c>
+      <c r="K96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>429</v>
+      </c>
+      <c r="B97" t="s">
+        <v>346</v>
+      </c>
+      <c r="C97" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" t="s">
+        <v>430</v>
+      </c>
+      <c r="E97" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" t="s">
+        <v>431</v>
+      </c>
+      <c r="I97" t="s">
+        <v>7</v>
+      </c>
+      <c r="J97" t="s">
+        <v>154</v>
+      </c>
+      <c r="K97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>432</v>
+      </c>
+      <c r="B98" t="s">
+        <v>346</v>
+      </c>
+      <c r="C98" t="s">
+        <v>433</v>
+      </c>
+      <c r="D98" t="s">
+        <v>434</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>134</v>
+      </c>
+      <c r="H98" t="s">
+        <v>435</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>154</v>
+      </c>
+      <c r="K98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>436</v>
+      </c>
+      <c r="B99" t="s">
+        <v>346</v>
+      </c>
+      <c r="C99" t="s">
+        <v>437</v>
+      </c>
+      <c r="D99" t="s">
+        <v>438</v>
+      </c>
+      <c r="E99" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" t="s">
+        <v>134</v>
+      </c>
+      <c r="H99" t="s">
+        <v>439</v>
+      </c>
+      <c r="I99" t="s">
+        <v>7</v>
+      </c>
+      <c r="J99" t="s">
+        <v>24</v>
+      </c>
+      <c r="K99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>440</v>
+      </c>
+      <c r="B100" t="s">
+        <v>346</v>
+      </c>
+      <c r="C100" t="s">
+        <v>441</v>
+      </c>
+      <c r="D100" t="s">
+        <v>442</v>
+      </c>
+      <c r="E100" t="s">
+        <v>97</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>443</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>444</v>
+      </c>
+      <c r="B101" t="s">
+        <v>346</v>
+      </c>
+      <c r="C101" t="s">
+        <v>445</v>
+      </c>
+      <c r="D101" t="s">
+        <v>446</v>
+      </c>
+      <c r="E101" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" t="s">
+        <v>125</v>
+      </c>
+      <c r="H101" t="s">
+        <v>447</v>
+      </c>
+      <c r="I101" t="s">
+        <v>7</v>
+      </c>
+      <c r="J101" t="s">
+        <v>149</v>
+      </c>
+      <c r="K101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>448</v>
+      </c>
+      <c r="B102" t="s">
+        <v>346</v>
+      </c>
+      <c r="C102" t="s">
+        <v>449</v>
+      </c>
+      <c r="D102" t="s">
+        <v>450</v>
+      </c>
+      <c r="E102" t="s">
+        <v>451</v>
+      </c>
+      <c r="G102" t="s">
+        <v>91</v>
+      </c>
+      <c r="H102" t="s">
+        <v>452</v>
+      </c>
+      <c r="I102" t="s">
+        <v>93</v>
+      </c>
+      <c r="J102" t="s">
+        <v>149</v>
+      </c>
+      <c r="K102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>453</v>
+      </c>
+      <c r="B103" t="s">
+        <v>346</v>
+      </c>
+      <c r="C103" t="s">
+        <v>454</v>
+      </c>
+      <c r="D103" t="s">
+        <v>455</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" t="s">
+        <v>456</v>
+      </c>
+      <c r="I103" t="s">
+        <v>93</v>
+      </c>
+      <c r="J103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>457</v>
+      </c>
+      <c r="B104" t="s">
+        <v>346</v>
+      </c>
+      <c r="C104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" t="s">
+        <v>458</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>91</v>
+      </c>
+      <c r="H104" t="s">
+        <v>459</v>
+      </c>
+      <c r="I104" t="s">
+        <v>7</v>
+      </c>
+      <c r="J104" t="s">
+        <v>154</v>
+      </c>
+      <c r="K104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>460</v>
+      </c>
+      <c r="B105" t="s">
+        <v>346</v>
+      </c>
+      <c r="C105" t="s">
+        <v>461</v>
+      </c>
+      <c r="D105" t="s">
+        <v>462</v>
+      </c>
+      <c r="E105" t="s">
+        <v>97</v>
+      </c>
+      <c r="G105" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>463</v>
+      </c>
+      <c r="I105" t="s">
+        <v>93</v>
+      </c>
+      <c r="J105" t="s">
+        <v>149</v>
+      </c>
+      <c r="K105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>464</v>
+      </c>
+      <c r="B106" t="s">
+        <v>346</v>
+      </c>
+      <c r="C106" t="s">
+        <v>74</v>
+      </c>
+      <c r="D106" t="s">
+        <v>465</v>
+      </c>
+      <c r="E106" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" t="s">
+        <v>134</v>
+      </c>
+      <c r="H106" t="s">
+        <v>466</v>
+      </c>
+      <c r="I106" t="s">
+        <v>7</v>
+      </c>
+      <c r="J106" t="s">
+        <v>149</v>
+      </c>
+      <c r="K106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>467</v>
+      </c>
+      <c r="B107" t="s">
+        <v>346</v>
+      </c>
+      <c r="C107" t="s">
+        <v>468</v>
+      </c>
+      <c r="D107" t="s">
+        <v>469</v>
+      </c>
+      <c r="E107" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" t="s">
+        <v>4</v>
+      </c>
+      <c r="H107" t="s">
+        <v>4</v>
+      </c>
+      <c r="I107" t="s">
+        <v>7</v>
+      </c>
+      <c r="J107" t="s">
+        <v>470</v>
+      </c>
+      <c r="K107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>471</v>
+      </c>
+      <c r="B108" t="s">
+        <v>346</v>
+      </c>
+      <c r="C108" t="s">
+        <v>472</v>
+      </c>
+      <c r="D108" t="s">
+        <v>473</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>91</v>
+      </c>
+      <c r="H108" t="s">
+        <v>474</v>
+      </c>
+      <c r="I108" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108" t="s">
+        <v>475</v>
+      </c>
+      <c r="K108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>476</v>
+      </c>
+      <c r="B109" t="s">
+        <v>346</v>
+      </c>
+      <c r="C109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109" t="s">
+        <v>477</v>
+      </c>
+      <c r="E109" t="s">
+        <v>39</v>
+      </c>
+      <c r="G109" t="s">
+        <v>91</v>
+      </c>
+      <c r="H109" t="s">
+        <v>478</v>
+      </c>
+      <c r="I109" t="s">
+        <v>7</v>
+      </c>
+      <c r="J109" t="s">
+        <v>24</v>
+      </c>
+      <c r="K109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>479</v>
+      </c>
+      <c r="B110" t="s">
+        <v>346</v>
+      </c>
+      <c r="C110" t="s">
+        <v>480</v>
+      </c>
+      <c r="D110" t="s">
+        <v>481</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" t="s">
+        <v>91</v>
+      </c>
+      <c r="H110" t="s">
+        <v>482</v>
+      </c>
+      <c r="I110" t="s">
+        <v>7</v>
+      </c>
+      <c r="J110" t="s">
+        <v>284</v>
+      </c>
+      <c r="K110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>483</v>
+      </c>
+      <c r="B111" t="s">
+        <v>346</v>
+      </c>
+      <c r="C111" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111" t="s">
+        <v>484</v>
+      </c>
+      <c r="E111" t="s">
+        <v>485</v>
+      </c>
+      <c r="G111" t="s">
+        <v>125</v>
+      </c>
+      <c r="H111" t="s">
+        <v>486</v>
+      </c>
+      <c r="I111" t="s">
+        <v>487</v>
+      </c>
+      <c r="J111" t="s">
+        <v>24</v>
+      </c>
+      <c r="K111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>488</v>
+      </c>
+      <c r="B112" t="s">
+        <v>346</v>
+      </c>
+      <c r="C112" t="s">
+        <v>251</v>
+      </c>
+      <c r="D112" t="s">
+        <v>477</v>
+      </c>
+      <c r="E112" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" t="s">
+        <v>4</v>
+      </c>
+      <c r="H112" t="s">
+        <v>4</v>
+      </c>
+      <c r="I112" t="s">
+        <v>7</v>
+      </c>
+      <c r="J112" t="s">
+        <v>24</v>
+      </c>
+      <c r="K112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>489</v>
+      </c>
+      <c r="B113" t="s">
+        <v>346</v>
+      </c>
+      <c r="C113" t="s">
+        <v>490</v>
+      </c>
+      <c r="D113" t="s">
+        <v>491</v>
+      </c>
+      <c r="E113" t="s">
+        <v>492</v>
+      </c>
+      <c r="G113" t="s">
+        <v>4</v>
+      </c>
+      <c r="H113" t="s">
+        <v>493</v>
+      </c>
+      <c r="I113" t="s">
+        <v>93</v>
+      </c>
+      <c r="J113" t="s">
+        <v>494</v>
+      </c>
+      <c r="K113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>495</v>
+      </c>
+      <c r="B114" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" t="s">
+        <v>490</v>
+      </c>
+      <c r="D114" t="s">
+        <v>496</v>
+      </c>
+      <c r="E114" t="s">
+        <v>397</v>
+      </c>
+      <c r="G114" t="s">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s">
+        <v>497</v>
+      </c>
+      <c r="I114" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114" t="s">
+        <v>498</v>
+      </c>
+      <c r="K114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>499</v>
+      </c>
+      <c r="B115" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" t="s">
+        <v>500</v>
+      </c>
+      <c r="D115" t="s">
+        <v>496</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115" t="s">
+        <v>501</v>
+      </c>
+      <c r="I115" t="s">
+        <v>7</v>
+      </c>
+      <c r="J115" t="s">
+        <v>245</v>
+      </c>
+      <c r="K115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>502</v>
+      </c>
+      <c r="B116" t="s">
+        <v>346</v>
+      </c>
+      <c r="C116" t="s">
+        <v>503</v>
+      </c>
+      <c r="D116" t="s">
+        <v>504</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" t="s">
+        <v>505</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>506</v>
+      </c>
+      <c r="K116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>507</v>
+      </c>
+      <c r="B117" t="s">
+        <v>346</v>
+      </c>
+      <c r="C117" t="s">
+        <v>508</v>
+      </c>
+      <c r="D117" t="s">
+        <v>509</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" t="s">
+        <v>510</v>
+      </c>
+      <c r="I117" t="s">
+        <v>35</v>
+      </c>
+      <c r="J117" t="s">
+        <v>210</v>
+      </c>
+      <c r="K117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>511</v>
+      </c>
+      <c r="B118" t="s">
+        <v>346</v>
+      </c>
+      <c r="C118" t="s">
+        <v>512</v>
+      </c>
+      <c r="D118" t="s">
+        <v>513</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" t="s">
+        <v>91</v>
+      </c>
+      <c r="H118" t="s">
+        <v>514</v>
+      </c>
+      <c r="I118" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118" t="s">
+        <v>24</v>
+      </c>
+      <c r="K118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>515</v>
+      </c>
+      <c r="B119" t="s">
+        <v>346</v>
+      </c>
+      <c r="C119" t="s">
+        <v>142</v>
+      </c>
+      <c r="D119" t="s">
+        <v>516</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" t="s">
+        <v>91</v>
+      </c>
+      <c r="H119" t="s">
+        <v>517</v>
+      </c>
+      <c r="I119" t="s">
+        <v>7</v>
+      </c>
+      <c r="J119" t="s">
+        <v>518</v>
+      </c>
+      <c r="K119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>519</v>
+      </c>
+      <c r="B120" t="s">
+        <v>346</v>
+      </c>
+      <c r="C120" t="s">
+        <v>520</v>
+      </c>
+      <c r="D120" t="s">
+        <v>521</v>
+      </c>
+      <c r="E120" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120" t="s">
+        <v>91</v>
+      </c>
+      <c r="H120" t="s">
+        <v>522</v>
+      </c>
+      <c r="I120" t="s">
+        <v>7</v>
+      </c>
+      <c r="J120" t="s">
+        <v>24</v>
+      </c>
+      <c r="K120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>523</v>
+      </c>
+      <c r="B121" t="s">
+        <v>346</v>
+      </c>
+      <c r="C121" t="s">
+        <v>524</v>
+      </c>
+      <c r="D121" t="s">
+        <v>525</v>
+      </c>
+      <c r="E121" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" t="s">
+        <v>91</v>
+      </c>
+      <c r="H121" t="s">
+        <v>526</v>
+      </c>
+      <c r="I121" t="s">
+        <v>51</v>
+      </c>
+      <c r="J121" t="s">
+        <v>52</v>
+      </c>
+      <c r="K121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>527</v>
+      </c>
+      <c r="B122" t="s">
+        <v>346</v>
+      </c>
+      <c r="C122" t="s">
+        <v>528</v>
+      </c>
+      <c r="D122" t="s">
+        <v>529</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" t="s">
+        <v>5</v>
+      </c>
+      <c r="H122" t="s">
+        <v>530</v>
+      </c>
+      <c r="I122" t="s">
+        <v>531</v>
+      </c>
+      <c r="J122" t="s">
+        <v>30</v>
+      </c>
+      <c r="K122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>532</v>
+      </c>
+      <c r="B123" t="s">
+        <v>346</v>
+      </c>
+      <c r="C123" t="s">
+        <v>528</v>
+      </c>
+      <c r="D123" t="s">
+        <v>533</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" t="s">
+        <v>134</v>
+      </c>
+      <c r="H123" t="s">
+        <v>534</v>
+      </c>
+      <c r="I123" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123" t="s">
+        <v>24</v>
+      </c>
+      <c r="K123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>535</v>
+      </c>
+      <c r="B124" t="s">
+        <v>346</v>
+      </c>
+      <c r="C124" t="s">
+        <v>536</v>
+      </c>
+      <c r="D124" t="s">
+        <v>537</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" t="s">
+        <v>4</v>
+      </c>
+      <c r="H124" t="s">
+        <v>538</v>
+      </c>
+      <c r="I124" t="s">
+        <v>7</v>
+      </c>
+      <c r="J124" t="s">
+        <v>149</v>
+      </c>
+      <c r="K124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>539</v>
+      </c>
+      <c r="B125" t="s">
+        <v>346</v>
+      </c>
+      <c r="C125" t="s">
+        <v>540</v>
+      </c>
+      <c r="D125" t="s">
+        <v>541</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" t="s">
+        <v>542</v>
+      </c>
+      <c r="I125" t="s">
+        <v>93</v>
+      </c>
+      <c r="J125" t="s">
+        <v>543</v>
+      </c>
+      <c r="K125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>544</v>
+      </c>
+      <c r="B126" t="s">
+        <v>346</v>
+      </c>
+      <c r="C126" t="s">
+        <v>545</v>
+      </c>
+      <c r="D126" t="s">
+        <v>546</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" t="s">
+        <v>91</v>
+      </c>
+      <c r="H126" t="s">
+        <v>547</v>
+      </c>
+      <c r="I126" t="s">
+        <v>51</v>
+      </c>
+      <c r="J126" t="s">
+        <v>548</v>
+      </c>
+      <c r="K126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>549</v>
+      </c>
+      <c r="B127" t="s">
+        <v>346</v>
+      </c>
+      <c r="C127" t="s">
+        <v>550</v>
+      </c>
+      <c r="D127" t="s">
+        <v>551</v>
+      </c>
+      <c r="E127" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" t="s">
+        <v>5</v>
+      </c>
+      <c r="H127" t="s">
+        <v>552</v>
+      </c>
+      <c r="I127" t="s">
+        <v>7</v>
+      </c>
+      <c r="J127" t="s">
+        <v>24</v>
+      </c>
+      <c r="K127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>553</v>
+      </c>
+      <c r="B128" t="s">
+        <v>346</v>
+      </c>
+      <c r="C128" t="s">
+        <v>554</v>
+      </c>
+      <c r="D128" t="s">
+        <v>555</v>
+      </c>
+      <c r="E128" t="s">
+        <v>397</v>
+      </c>
+      <c r="G128" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128" t="s">
+        <v>556</v>
+      </c>
+      <c r="I128" t="s">
+        <v>7</v>
+      </c>
+      <c r="J128" t="s">
+        <v>149</v>
+      </c>
+      <c r="K128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>557</v>
+      </c>
+      <c r="B129" t="s">
+        <v>346</v>
+      </c>
+      <c r="C129" t="s">
+        <v>558</v>
+      </c>
+      <c r="D129" t="s">
+        <v>559</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+      <c r="G129" t="s">
+        <v>134</v>
+      </c>
+      <c r="H129" t="s">
+        <v>560</v>
+      </c>
+      <c r="I129" t="s">
+        <v>7</v>
+      </c>
+      <c r="J129" t="s">
+        <v>201</v>
+      </c>
+      <c r="K129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>561</v>
+      </c>
+      <c r="B130" t="s">
+        <v>346</v>
+      </c>
+      <c r="C130" t="s">
+        <v>562</v>
+      </c>
+      <c r="D130" t="s">
+        <v>563</v>
+      </c>
+      <c r="E130" t="s">
+        <v>97</v>
+      </c>
+      <c r="G130" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130" t="s">
+        <v>564</v>
+      </c>
+      <c r="I130" t="s">
+        <v>51</v>
+      </c>
+      <c r="J130" t="s">
+        <v>399</v>
+      </c>
+      <c r="K130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>565</v>
+      </c>
+      <c r="B131" t="s">
+        <v>346</v>
+      </c>
+      <c r="C131" t="s">
+        <v>566</v>
+      </c>
+      <c r="D131" t="s">
+        <v>567</v>
+      </c>
+      <c r="E131" t="s">
+        <v>39</v>
+      </c>
+      <c r="G131" t="s">
+        <v>91</v>
+      </c>
+      <c r="H131" t="s">
+        <v>568</v>
+      </c>
+      <c r="I131" t="s">
+        <v>7</v>
+      </c>
+      <c r="J131" t="s">
+        <v>569</v>
+      </c>
+      <c r="K131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>570</v>
+      </c>
+      <c r="B132" t="s">
+        <v>346</v>
+      </c>
+      <c r="C132" t="s">
+        <v>566</v>
+      </c>
+      <c r="D132" t="s">
+        <v>571</v>
+      </c>
+      <c r="E132" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" t="s">
+        <v>572</v>
+      </c>
+      <c r="I132" t="s">
+        <v>7</v>
+      </c>
+      <c r="J132" t="s">
+        <v>24</v>
+      </c>
+      <c r="K132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>573</v>
+      </c>
+      <c r="B133" t="s">
+        <v>346</v>
+      </c>
+      <c r="C133" t="s">
+        <v>574</v>
+      </c>
+      <c r="D133" t="s">
+        <v>575</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H133" t="s">
+        <v>576</v>
+      </c>
+      <c r="I133" t="s">
+        <v>51</v>
+      </c>
+      <c r="J133" t="s">
+        <v>60</v>
+      </c>
+      <c r="K133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>577</v>
+      </c>
+      <c r="B134" t="s">
+        <v>346</v>
+      </c>
+      <c r="C134" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" t="s">
+        <v>578</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>5</v>
+      </c>
+      <c r="H134" t="s">
+        <v>579</v>
+      </c>
+      <c r="I134" t="s">
+        <v>7</v>
+      </c>
+      <c r="J134" t="s">
+        <v>140</v>
+      </c>
+      <c r="K134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>580</v>
+      </c>
+      <c r="B135" t="s">
+        <v>346</v>
+      </c>
+      <c r="C135" t="s">
+        <v>581</v>
+      </c>
+      <c r="D135" t="s">
+        <v>582</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" t="s">
+        <v>91</v>
+      </c>
+      <c r="H135" t="s">
+        <v>583</v>
+      </c>
+      <c r="I135" t="s">
+        <v>7</v>
+      </c>
+      <c r="J135" t="s">
+        <v>584</v>
+      </c>
+      <c r="K135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>585</v>
+      </c>
+      <c r="B136" t="s">
+        <v>346</v>
+      </c>
+      <c r="C136" t="s">
+        <v>586</v>
+      </c>
+      <c r="D136" t="s">
+        <v>587</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="G136" t="s">
+        <v>125</v>
+      </c>
+      <c r="H136" t="s">
+        <v>588</v>
+      </c>
+      <c r="I136" t="s">
+        <v>51</v>
+      </c>
+      <c r="J136" t="s">
+        <v>69</v>
+      </c>
+      <c r="K136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>589</v>
+      </c>
+      <c r="B137" t="s">
+        <v>346</v>
+      </c>
+      <c r="C137" t="s">
+        <v>586</v>
+      </c>
+      <c r="D137" t="s">
+        <v>590</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" t="s">
+        <v>5</v>
+      </c>
+      <c r="H137" t="s">
+        <v>591</v>
+      </c>
+      <c r="I137" t="s">
+        <v>86</v>
+      </c>
+      <c r="J137" t="s">
+        <v>592</v>
+      </c>
+      <c r="K137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>593</v>
+      </c>
+      <c r="B138" t="s">
+        <v>346</v>
+      </c>
+      <c r="C138" t="s">
+        <v>594</v>
+      </c>
+      <c r="D138" t="s">
+        <v>595</v>
+      </c>
+      <c r="E138" t="s">
+        <v>39</v>
+      </c>
+      <c r="G138" t="s">
+        <v>91</v>
+      </c>
+      <c r="H138" t="s">
+        <v>596</v>
+      </c>
+      <c r="I138" t="s">
+        <v>7</v>
+      </c>
+      <c r="J138" t="s">
+        <v>475</v>
+      </c>
+      <c r="K138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>597</v>
+      </c>
+      <c r="B139" t="s">
+        <v>346</v>
+      </c>
+      <c r="C139" t="s">
+        <v>160</v>
+      </c>
+      <c r="D139" t="s">
+        <v>598</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139" t="s">
+        <v>4</v>
+      </c>
+      <c r="H139" t="s">
+        <v>599</v>
+      </c>
+      <c r="I139" t="s">
+        <v>93</v>
+      </c>
+      <c r="J139" t="s">
+        <v>332</v>
+      </c>
+      <c r="K139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>600</v>
+      </c>
+      <c r="B140" t="s">
+        <v>346</v>
+      </c>
+      <c r="C140" t="s">
+        <v>601</v>
+      </c>
+      <c r="D140" t="s">
+        <v>602</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="G140" t="s">
+        <v>91</v>
+      </c>
+      <c r="H140" t="s">
+        <v>603</v>
+      </c>
+      <c r="I140" t="s">
+        <v>7</v>
+      </c>
+      <c r="J140" t="s">
+        <v>24</v>
+      </c>
+      <c r="K140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>604</v>
+      </c>
+      <c r="B141" t="s">
+        <v>346</v>
+      </c>
+      <c r="C141" t="s">
+        <v>605</v>
+      </c>
+      <c r="D141" t="s">
+        <v>606</v>
+      </c>
+      <c r="E141" t="s">
+        <v>97</v>
+      </c>
+      <c r="G141" t="s">
+        <v>91</v>
+      </c>
+      <c r="H141" t="s">
+        <v>607</v>
+      </c>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+      <c r="J141" t="s">
+        <v>60</v>
+      </c>
+      <c r="K141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>608</v>
+      </c>
+      <c r="B142" t="s">
+        <v>346</v>
+      </c>
+      <c r="C142" t="s">
+        <v>609</v>
+      </c>
+      <c r="D142" t="s">
+        <v>610</v>
+      </c>
+      <c r="E142" t="s">
+        <v>611</v>
+      </c>
+      <c r="G142" t="s">
+        <v>4</v>
+      </c>
+      <c r="H142" t="s">
+        <v>612</v>
+      </c>
+      <c r="I142" t="s">
+        <v>7</v>
+      </c>
+      <c r="J142" t="s">
+        <v>149</v>
+      </c>
+      <c r="K142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>613</v>
+      </c>
+      <c r="B143" t="s">
+        <v>346</v>
+      </c>
+      <c r="C143" t="s">
+        <v>609</v>
+      </c>
+      <c r="D143" t="s">
+        <v>614</v>
+      </c>
+      <c r="E143" t="s">
+        <v>39</v>
+      </c>
+      <c r="G143" t="s">
+        <v>91</v>
+      </c>
+      <c r="H143" t="s">
+        <v>615</v>
+      </c>
+      <c r="I143" t="s">
+        <v>51</v>
+      </c>
+      <c r="J143" t="s">
+        <v>220</v>
+      </c>
+      <c r="K143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>616</v>
+      </c>
+      <c r="B144" t="s">
+        <v>346</v>
+      </c>
+      <c r="C144" t="s">
+        <v>609</v>
+      </c>
+      <c r="D144" t="s">
+        <v>617</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144" t="s">
+        <v>618</v>
+      </c>
+      <c r="I144" t="s">
+        <v>51</v>
+      </c>
+      <c r="J144" t="s">
+        <v>220</v>
+      </c>
+      <c r="K144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>619</v>
+      </c>
+      <c r="B145" t="s">
+        <v>346</v>
+      </c>
+      <c r="C145" t="s">
+        <v>620</v>
+      </c>
+      <c r="D145" t="s">
+        <v>621</v>
+      </c>
+      <c r="E145" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" t="s">
+        <v>91</v>
+      </c>
+      <c r="H145" t="s">
+        <v>622</v>
+      </c>
+      <c r="I145" t="s">
+        <v>7</v>
+      </c>
+      <c r="J145" t="s">
+        <v>24</v>
+      </c>
+      <c r="K145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>623</v>
+      </c>
+      <c r="B146" t="s">
+        <v>346</v>
+      </c>
+      <c r="C146" t="s">
+        <v>624</v>
+      </c>
+      <c r="D146" t="s">
+        <v>625</v>
+      </c>
+      <c r="E146" t="s">
+        <v>4</v>
+      </c>
+      <c r="G146" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146" t="s">
+        <v>626</v>
+      </c>
+      <c r="I146" t="s">
+        <v>7</v>
+      </c>
+      <c r="J146" t="s">
+        <v>24</v>
+      </c>
+      <c r="K146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>627</v>
+      </c>
+      <c r="B147" t="s">
+        <v>346</v>
+      </c>
+      <c r="C147" t="s">
+        <v>628</v>
+      </c>
+      <c r="D147" t="s">
+        <v>629</v>
+      </c>
+      <c r="E147" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>91</v>
+      </c>
+      <c r="H147" t="s">
+        <v>630</v>
+      </c>
+      <c r="I147" t="s">
+        <v>7</v>
+      </c>
+      <c r="J147" t="s">
+        <v>24</v>
+      </c>
+      <c r="K147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>631</v>
+      </c>
+      <c r="B148" t="s">
+        <v>346</v>
+      </c>
+      <c r="C148" t="s">
+        <v>632</v>
+      </c>
+      <c r="D148" t="s">
+        <v>633</v>
+      </c>
+      <c r="E148" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>5</v>
+      </c>
+      <c r="H148" t="s">
+        <v>634</v>
+      </c>
+      <c r="I148" t="s">
+        <v>7</v>
+      </c>
+      <c r="J148" t="s">
+        <v>635</v>
+      </c>
+      <c r="K148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>636</v>
+      </c>
+      <c r="B149" t="s">
+        <v>346</v>
+      </c>
+      <c r="C149" t="s">
+        <v>637</v>
+      </c>
+      <c r="D149" t="s">
+        <v>638</v>
+      </c>
+      <c r="E149" t="s">
+        <v>4</v>
+      </c>
+      <c r="G149" t="s">
+        <v>5</v>
+      </c>
+      <c r="H149" t="s">
+        <v>639</v>
+      </c>
+      <c r="I149" t="s">
+        <v>7</v>
+      </c>
+      <c r="J149" t="s">
+        <v>640</v>
+      </c>
+      <c r="K149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>641</v>
+      </c>
+      <c r="B150" t="s">
+        <v>346</v>
+      </c>
+      <c r="C150" t="s">
+        <v>642</v>
+      </c>
+      <c r="D150" t="s">
+        <v>643</v>
+      </c>
+      <c r="E150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150" t="s">
+        <v>644</v>
+      </c>
+      <c r="I150" t="s">
+        <v>7</v>
+      </c>
+      <c r="J150" t="s">
+        <v>373</v>
+      </c>
+      <c r="K150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>645</v>
+      </c>
+      <c r="B151" t="s">
+        <v>346</v>
+      </c>
+      <c r="C151" t="s">
+        <v>646</v>
+      </c>
+      <c r="D151" t="s">
+        <v>647</v>
+      </c>
+      <c r="E151" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151" t="s">
+        <v>648</v>
+      </c>
+      <c r="I151" t="s">
+        <v>51</v>
+      </c>
+      <c r="J151" t="s">
+        <v>649</v>
+      </c>
+      <c r="K151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>650</v>
+      </c>
+      <c r="B152" t="s">
+        <v>346</v>
+      </c>
+      <c r="C152" t="s">
+        <v>646</v>
+      </c>
+      <c r="D152" t="s">
+        <v>651</v>
+      </c>
+      <c r="E152" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>5</v>
+      </c>
+      <c r="H152" t="s">
+        <v>652</v>
+      </c>
+      <c r="I152" t="s">
+        <v>7</v>
+      </c>
+      <c r="J152" t="s">
+        <v>24</v>
+      </c>
+      <c r="K152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>653</v>
+      </c>
+      <c r="B153" t="s">
+        <v>346</v>
+      </c>
+      <c r="C153" t="s">
+        <v>164</v>
+      </c>
+      <c r="D153" t="s">
+        <v>654</v>
+      </c>
+      <c r="E153" t="s">
+        <v>39</v>
+      </c>
+      <c r="G153" t="s">
+        <v>91</v>
+      </c>
+      <c r="H153" t="s">
+        <v>655</v>
+      </c>
+      <c r="I153" t="s">
+        <v>7</v>
+      </c>
+      <c r="J153" t="s">
+        <v>323</v>
+      </c>
+      <c r="K153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>656</v>
+      </c>
+      <c r="B154" t="s">
+        <v>346</v>
+      </c>
+      <c r="C154" t="s">
+        <v>657</v>
+      </c>
+      <c r="D154" t="s">
+        <v>658</v>
+      </c>
+      <c r="E154" t="s">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>91</v>
+      </c>
+      <c r="H154" t="s">
+        <v>659</v>
+      </c>
+      <c r="I154" t="s">
+        <v>7</v>
+      </c>
+      <c r="J154" t="s">
+        <v>24</v>
+      </c>
+      <c r="K154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>660</v>
+      </c>
+      <c r="B155" t="s">
+        <v>346</v>
+      </c>
+      <c r="C155" t="s">
+        <v>661</v>
+      </c>
+      <c r="D155" t="s">
+        <v>662</v>
+      </c>
+      <c r="E155" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" t="s">
+        <v>91</v>
+      </c>
+      <c r="H155" t="s">
+        <v>663</v>
+      </c>
+      <c r="I155" t="s">
+        <v>93</v>
+      </c>
+      <c r="J155" t="s">
+        <v>24</v>
+      </c>
+      <c r="K155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>664</v>
+      </c>
+      <c r="B156" t="s">
+        <v>346</v>
+      </c>
+      <c r="C156" t="s">
+        <v>665</v>
+      </c>
+      <c r="D156" t="s">
+        <v>666</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>91</v>
+      </c>
+      <c r="H156" t="s">
+        <v>667</v>
+      </c>
+      <c r="I156" t="s">
+        <v>51</v>
+      </c>
+      <c r="J156" t="s">
+        <v>668</v>
+      </c>
+      <c r="K156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>669</v>
+      </c>
+      <c r="B157" t="s">
+        <v>346</v>
+      </c>
+      <c r="C157" t="s">
+        <v>670</v>
+      </c>
+      <c r="D157" t="s">
+        <v>671</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>4</v>
+      </c>
+      <c r="H157" t="s">
+        <v>4</v>
+      </c>
+      <c r="I157" t="s">
+        <v>7</v>
+      </c>
+      <c r="J157" t="s">
+        <v>24</v>
+      </c>
+      <c r="K157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>672</v>
+      </c>
+      <c r="B158" t="s">
+        <v>346</v>
+      </c>
+      <c r="C158" t="s">
+        <v>673</v>
+      </c>
+      <c r="D158" t="s">
+        <v>674</v>
+      </c>
+      <c r="E158" t="s">
+        <v>4</v>
+      </c>
+      <c r="G158" t="s">
+        <v>91</v>
+      </c>
+      <c r="H158" t="s">
+        <v>675</v>
+      </c>
+      <c r="I158" t="s">
+        <v>7</v>
+      </c>
+      <c r="J158" t="s">
+        <v>676</v>
+      </c>
+      <c r="K158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>677</v>
+      </c>
+      <c r="B159" t="s">
+        <v>346</v>
+      </c>
+      <c r="C159" t="s">
+        <v>678</v>
+      </c>
+      <c r="D159" t="s">
+        <v>679</v>
+      </c>
+      <c r="E159" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" t="s">
+        <v>4</v>
+      </c>
+      <c r="H159" t="s">
+        <v>4</v>
+      </c>
+      <c r="I159" t="s">
+        <v>7</v>
+      </c>
+      <c r="J159" t="s">
+        <v>24</v>
+      </c>
+      <c r="K159" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>680</v>
+      </c>
+      <c r="B160" t="s">
+        <v>346</v>
+      </c>
+      <c r="C160" t="s">
+        <v>681</v>
+      </c>
+      <c r="D160" t="s">
+        <v>682</v>
+      </c>
+      <c r="E160" t="s">
+        <v>97</v>
+      </c>
+      <c r="G160" t="s">
+        <v>91</v>
+      </c>
+      <c r="H160" t="s">
+        <v>683</v>
+      </c>
+      <c r="I160" t="s">
+        <v>7</v>
+      </c>
+      <c r="J160" t="s">
+        <v>60</v>
+      </c>
+      <c r="K160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>684</v>
+      </c>
+      <c r="B161" t="s">
+        <v>346</v>
+      </c>
+      <c r="C161" t="s">
+        <v>685</v>
+      </c>
+      <c r="D161" t="s">
+        <v>686</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4</v>
+      </c>
+      <c r="G161" t="s">
+        <v>91</v>
+      </c>
+      <c r="H161" t="s">
+        <v>687</v>
+      </c>
+      <c r="I161" t="s">
+        <v>7</v>
+      </c>
+      <c r="J161" t="s">
+        <v>24</v>
+      </c>
+      <c r="K161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>688</v>
+      </c>
+      <c r="B162" t="s">
+        <v>346</v>
+      </c>
+      <c r="C162" t="s">
+        <v>689</v>
+      </c>
+      <c r="D162" t="s">
+        <v>690</v>
+      </c>
+      <c r="E162" t="s">
+        <v>4</v>
+      </c>
+      <c r="G162" t="s">
+        <v>5</v>
+      </c>
+      <c r="H162" t="s">
+        <v>691</v>
+      </c>
+      <c r="I162" t="s">
+        <v>35</v>
+      </c>
+      <c r="J162" t="s">
+        <v>30</v>
+      </c>
+      <c r="K162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>692</v>
+      </c>
+      <c r="B163" t="s">
+        <v>346</v>
+      </c>
+      <c r="C163" t="s">
+        <v>693</v>
+      </c>
+      <c r="D163" t="s">
+        <v>694</v>
+      </c>
+      <c r="E163" t="s">
+        <v>4</v>
+      </c>
+      <c r="G163" t="s">
+        <v>4</v>
+      </c>
+      <c r="H163" t="s">
+        <v>695</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" t="s">
+        <v>220</v>
+      </c>
+      <c r="K163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>696</v>
+      </c>
+      <c r="B164" t="s">
+        <v>346</v>
+      </c>
+      <c r="C164" t="s">
+        <v>697</v>
+      </c>
+      <c r="D164" t="s">
+        <v>698</v>
+      </c>
+      <c r="E164" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>134</v>
+      </c>
+      <c r="H164" t="s">
+        <v>699</v>
+      </c>
+      <c r="I164" t="s">
+        <v>51</v>
+      </c>
+      <c r="J164" t="s">
+        <v>220</v>
+      </c>
+      <c r="K164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>700</v>
+      </c>
+      <c r="B165" t="s">
+        <v>346</v>
+      </c>
+      <c r="C165" t="s">
+        <v>697</v>
+      </c>
+      <c r="D165" t="s">
+        <v>701</v>
+      </c>
+      <c r="E165" t="s">
+        <v>4</v>
+      </c>
+      <c r="G165" t="s">
+        <v>4</v>
+      </c>
+      <c r="H165" t="s">
+        <v>4</v>
+      </c>
+      <c r="I165" t="s">
+        <v>7</v>
+      </c>
+      <c r="J165" t="s">
+        <v>24</v>
+      </c>
+      <c r="K165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>702</v>
+      </c>
+      <c r="B166" t="s">
+        <v>346</v>
+      </c>
+      <c r="C166" t="s">
+        <v>703</v>
+      </c>
+      <c r="D166" t="s">
+        <v>704</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+      <c r="G166" t="s">
+        <v>4</v>
+      </c>
+      <c r="H166" t="s">
+        <v>705</v>
+      </c>
+      <c r="I166" t="s">
+        <v>7</v>
+      </c>
+      <c r="J166" t="s">
+        <v>24</v>
+      </c>
+      <c r="K166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>706</v>
+      </c>
+      <c r="B167" t="s">
+        <v>346</v>
+      </c>
+      <c r="C167" t="s">
+        <v>707</v>
+      </c>
+      <c r="D167" t="s">
+        <v>708</v>
+      </c>
+      <c r="E167" t="s">
+        <v>39</v>
+      </c>
+      <c r="G167" t="s">
+        <v>91</v>
+      </c>
+      <c r="H167" t="s">
+        <v>709</v>
+      </c>
+      <c r="I167" t="s">
+        <v>51</v>
+      </c>
+      <c r="J167" t="s">
+        <v>60</v>
+      </c>
+      <c r="K167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>710</v>
+      </c>
+      <c r="B168" t="s">
+        <v>346</v>
+      </c>
+      <c r="C168" t="s">
+        <v>707</v>
+      </c>
+      <c r="D168" t="s">
+        <v>711</v>
+      </c>
+      <c r="E168" t="s">
+        <v>4</v>
+      </c>
+      <c r="G168" t="s">
+        <v>5</v>
+      </c>
+      <c r="H168" t="s">
+        <v>712</v>
+      </c>
+      <c r="I168" t="s">
+        <v>7</v>
+      </c>
+      <c r="J168" t="s">
+        <v>713</v>
+      </c>
+      <c r="K168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>714</v>
+      </c>
+      <c r="B169" t="s">
+        <v>346</v>
+      </c>
+      <c r="C169" t="s">
+        <v>707</v>
+      </c>
+      <c r="D169" t="s">
+        <v>715</v>
+      </c>
+      <c r="E169" t="s">
+        <v>4</v>
+      </c>
+      <c r="G169" t="s">
+        <v>5</v>
+      </c>
+      <c r="H169" t="s">
+        <v>716</v>
+      </c>
+      <c r="I169" t="s">
+        <v>7</v>
+      </c>
+      <c r="J169" t="s">
+        <v>498</v>
+      </c>
+      <c r="K169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>717</v>
+      </c>
+      <c r="B170" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170" t="s">
+        <v>707</v>
+      </c>
+      <c r="D170" t="s">
+        <v>718</v>
+      </c>
+      <c r="E170" t="s">
+        <v>4</v>
+      </c>
+      <c r="G170" t="s">
+        <v>5</v>
+      </c>
+      <c r="H170" t="s">
+        <v>719</v>
+      </c>
+      <c r="I170" t="s">
+        <v>93</v>
+      </c>
+      <c r="J170" t="s">
+        <v>393</v>
+      </c>
+      <c r="K170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>720</v>
+      </c>
+      <c r="B171" t="s">
+        <v>346</v>
+      </c>
+      <c r="C171" t="s">
+        <v>721</v>
+      </c>
+      <c r="D171" t="s">
+        <v>722</v>
+      </c>
+      <c r="E171" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171" t="s">
+        <v>91</v>
+      </c>
+      <c r="H171" t="s">
+        <v>723</v>
+      </c>
+      <c r="I171" t="s">
+        <v>7</v>
+      </c>
+      <c r="J171" t="s">
+        <v>24</v>
+      </c>
+      <c r="K171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>724</v>
+      </c>
+      <c r="B172" t="s">
+        <v>346</v>
+      </c>
+      <c r="C172" t="s">
+        <v>721</v>
+      </c>
+      <c r="D172" t="s">
+        <v>725</v>
+      </c>
+      <c r="E172" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" t="s">
+        <v>91</v>
+      </c>
+      <c r="H172" t="s">
+        <v>726</v>
+      </c>
+      <c r="I172" t="s">
+        <v>51</v>
+      </c>
+      <c r="J172" t="s">
+        <v>649</v>
+      </c>
+      <c r="K172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>727</v>
+      </c>
+      <c r="B173" t="s">
+        <v>346</v>
+      </c>
+      <c r="C173" t="s">
+        <v>728</v>
+      </c>
+      <c r="D173" t="s">
+        <v>729</v>
+      </c>
+      <c r="E173" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" t="s">
+        <v>5</v>
+      </c>
+      <c r="H173" t="s">
+        <v>730</v>
+      </c>
+      <c r="I173" t="s">
+        <v>7</v>
+      </c>
+      <c r="J173" t="s">
+        <v>149</v>
+      </c>
+      <c r="K173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>731</v>
+      </c>
+      <c r="B174" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" t="s">
+        <v>728</v>
+      </c>
+      <c r="D174" t="s">
+        <v>732</v>
+      </c>
+      <c r="E174" t="s">
+        <v>39</v>
+      </c>
+      <c r="G174" t="s">
+        <v>91</v>
+      </c>
+      <c r="H174" t="s">
+        <v>733</v>
+      </c>
+      <c r="I174" t="s">
+        <v>7</v>
+      </c>
+      <c r="J174" t="s">
+        <v>734</v>
+      </c>
+      <c r="K174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>735</v>
+      </c>
+      <c r="B175" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" t="s">
+        <v>736</v>
+      </c>
+      <c r="D175" t="s">
+        <v>455</v>
+      </c>
+      <c r="E175" t="s">
+        <v>97</v>
+      </c>
+      <c r="G175" t="s">
+        <v>91</v>
+      </c>
+      <c r="H175" t="s">
+        <v>737</v>
+      </c>
+      <c r="I175" t="s">
+        <v>93</v>
+      </c>
+      <c r="J175" t="s">
+        <v>24</v>
+      </c>
+      <c r="K175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>738</v>
+      </c>
+      <c r="B176" t="s">
+        <v>346</v>
+      </c>
+      <c r="C176" t="s">
+        <v>739</v>
+      </c>
+      <c r="D176" t="s">
+        <v>740</v>
+      </c>
+      <c r="E176" t="s">
+        <v>4</v>
+      </c>
+      <c r="G176" t="s">
+        <v>5</v>
+      </c>
+      <c r="H176" t="s">
+        <v>741</v>
+      </c>
+      <c r="I176" t="s">
+        <v>7</v>
+      </c>
+      <c r="J176" t="s">
+        <v>742</v>
+      </c>
+      <c r="K176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>743</v>
+      </c>
+      <c r="B177" t="s">
+        <v>346</v>
+      </c>
+      <c r="C177" t="s">
+        <v>744</v>
+      </c>
+      <c r="D177" t="s">
+        <v>745</v>
+      </c>
+      <c r="E177" t="s">
+        <v>97</v>
+      </c>
+      <c r="G177" t="s">
+        <v>5</v>
+      </c>
+      <c r="H177" t="s">
+        <v>746</v>
+      </c>
+      <c r="I177" t="s">
+        <v>93</v>
+      </c>
+      <c r="J177" t="s">
+        <v>140</v>
+      </c>
+      <c r="K177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>747</v>
+      </c>
+      <c r="B178" t="s">
+        <v>346</v>
+      </c>
+      <c r="C178" t="s">
+        <v>748</v>
+      </c>
+      <c r="D178" t="s">
+        <v>749</v>
+      </c>
+      <c r="E178" t="s">
+        <v>4</v>
+      </c>
+      <c r="G178" t="s">
+        <v>5</v>
+      </c>
+      <c r="H178" t="s">
+        <v>750</v>
+      </c>
+      <c r="I178" t="s">
+        <v>7</v>
+      </c>
+      <c r="J178" t="s">
+        <v>154</v>
+      </c>
+      <c r="K178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>751</v>
+      </c>
+      <c r="B179" t="s">
+        <v>346</v>
+      </c>
+      <c r="C179" t="s">
+        <v>748</v>
+      </c>
+      <c r="D179" t="s">
+        <v>752</v>
+      </c>
+      <c r="E179" t="s">
+        <v>4</v>
+      </c>
+      <c r="G179" t="s">
+        <v>4</v>
+      </c>
+      <c r="H179" t="s">
+        <v>4</v>
+      </c>
+      <c r="I179" t="s">
+        <v>7</v>
+      </c>
+      <c r="J179" t="s">
+        <v>24</v>
+      </c>
+      <c r="K179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>753</v>
+      </c>
+      <c r="B180" t="s">
+        <v>346</v>
+      </c>
+      <c r="C180" t="s">
+        <v>748</v>
+      </c>
+      <c r="D180" t="s">
+        <v>754</v>
+      </c>
+      <c r="E180" t="s">
+        <v>97</v>
+      </c>
+      <c r="G180" t="s">
+        <v>5</v>
+      </c>
+      <c r="H180" t="s">
+        <v>755</v>
+      </c>
+      <c r="I180" t="s">
+        <v>51</v>
+      </c>
+      <c r="J180" t="s">
+        <v>756</v>
+      </c>
+      <c r="K180" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>757</v>
+      </c>
+      <c r="B181" t="s">
+        <v>346</v>
+      </c>
+      <c r="C181" t="s">
+        <v>758</v>
+      </c>
+      <c r="D181" t="s">
+        <v>759</v>
+      </c>
+      <c r="E181" t="s">
+        <v>4</v>
+      </c>
+      <c r="G181" t="s">
+        <v>4</v>
+      </c>
+      <c r="H181" t="s">
+        <v>760</v>
+      </c>
+      <c r="I181" t="s">
+        <v>7</v>
+      </c>
+      <c r="J181" t="s">
+        <v>24</v>
+      </c>
+      <c r="K181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>761</v>
+      </c>
+      <c r="B182" t="s">
+        <v>346</v>
+      </c>
+      <c r="C182" t="s">
+        <v>762</v>
+      </c>
+      <c r="D182" t="s">
+        <v>763</v>
+      </c>
+      <c r="E182" t="s">
+        <v>97</v>
+      </c>
+      <c r="G182" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182" t="s">
+        <v>764</v>
+      </c>
+      <c r="I182" t="s">
+        <v>93</v>
+      </c>
+      <c r="J182" t="s">
+        <v>393</v>
+      </c>
+      <c r="K182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>765</v>
+      </c>
+      <c r="B183" t="s">
+        <v>346</v>
+      </c>
+      <c r="C183" t="s">
+        <v>766</v>
+      </c>
+      <c r="D183" t="s">
+        <v>767</v>
+      </c>
+      <c r="E183" t="s">
+        <v>4</v>
+      </c>
+      <c r="G183" t="s">
+        <v>91</v>
+      </c>
+      <c r="H183" t="s">
+        <v>768</v>
+      </c>
+      <c r="I183" t="s">
+        <v>7</v>
+      </c>
+      <c r="J183" t="s">
+        <v>24</v>
+      </c>
+      <c r="K183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>769</v>
+      </c>
+      <c r="B184" t="s">
+        <v>346</v>
+      </c>
+      <c r="C184" t="s">
+        <v>770</v>
+      </c>
+      <c r="D184" t="s">
+        <v>771</v>
+      </c>
+      <c r="E184" t="s">
+        <v>4</v>
+      </c>
+      <c r="G184" t="s">
+        <v>5</v>
+      </c>
+      <c r="H184" t="s">
+        <v>772</v>
+      </c>
+      <c r="I184" t="s">
+        <v>7</v>
+      </c>
+      <c r="J184" t="s">
+        <v>24</v>
+      </c>
+      <c r="K184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>773</v>
+      </c>
+      <c r="B185" t="s">
+        <v>346</v>
+      </c>
+      <c r="C185" t="s">
+        <v>774</v>
+      </c>
+      <c r="D185" t="s">
+        <v>775</v>
+      </c>
+      <c r="E185" t="s">
+        <v>4</v>
+      </c>
+      <c r="G185" t="s">
+        <v>134</v>
+      </c>
+      <c r="H185" t="s">
+        <v>776</v>
+      </c>
+      <c r="I185" t="s">
+        <v>7</v>
+      </c>
+      <c r="J185" t="s">
+        <v>640</v>
+      </c>
+      <c r="K185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>777</v>
+      </c>
+      <c r="B186" t="s">
+        <v>346</v>
+      </c>
+      <c r="C186" t="s">
+        <v>778</v>
+      </c>
+      <c r="D186" t="s">
+        <v>779</v>
+      </c>
+      <c r="E186" t="s">
+        <v>4</v>
+      </c>
+      <c r="G186" t="s">
+        <v>5</v>
+      </c>
+      <c r="H186" t="s">
+        <v>780</v>
+      </c>
+      <c r="I186" t="s">
+        <v>93</v>
+      </c>
+      <c r="J186" t="s">
+        <v>781</v>
+      </c>
+      <c r="K186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>782</v>
+      </c>
+      <c r="B187" t="s">
+        <v>346</v>
+      </c>
+      <c r="C187" t="s">
+        <v>783</v>
+      </c>
+      <c r="D187" t="s">
+        <v>784</v>
+      </c>
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+      <c r="G187" t="s">
+        <v>5</v>
+      </c>
+      <c r="H187" t="s">
+        <v>785</v>
+      </c>
+      <c r="I187" t="s">
+        <v>7</v>
+      </c>
+      <c r="J187" t="s">
+        <v>41</v>
+      </c>
+      <c r="K187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>786</v>
+      </c>
+      <c r="B188" t="s">
+        <v>346</v>
+      </c>
+      <c r="C188" t="s">
+        <v>787</v>
+      </c>
+      <c r="D188" t="s">
+        <v>788</v>
+      </c>
+      <c r="E188" t="s">
+        <v>4</v>
+      </c>
+      <c r="G188" t="s">
+        <v>5</v>
+      </c>
+      <c r="H188" t="s">
+        <v>789</v>
+      </c>
+      <c r="I188" t="s">
+        <v>51</v>
+      </c>
+      <c r="J188" t="s">
+        <v>60</v>
+      </c>
+      <c r="K188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>790</v>
+      </c>
+      <c r="B189" t="s">
+        <v>346</v>
+      </c>
+      <c r="C189" t="s">
+        <v>347</v>
+      </c>
+      <c r="D189" t="s">
+        <v>791</v>
+      </c>
+      <c r="E189" t="s">
+        <v>4</v>
+      </c>
+      <c r="G189" t="s">
+        <v>4</v>
+      </c>
+      <c r="H189" t="s">
+        <v>4</v>
+      </c>
+      <c r="I189" t="s">
+        <v>51</v>
+      </c>
+      <c r="J189" t="s">
+        <v>60</v>
+      </c>
+      <c r="K189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>792</v>
+      </c>
+      <c r="B190" t="s">
+        <v>346</v>
+      </c>
+      <c r="C190" t="s">
+        <v>793</v>
+      </c>
+      <c r="D190" t="s">
+        <v>794</v>
+      </c>
+      <c r="E190" t="s">
+        <v>4</v>
+      </c>
+      <c r="G190" t="s">
+        <v>5</v>
+      </c>
+      <c r="H190" t="s">
+        <v>795</v>
+      </c>
+      <c r="I190" t="s">
+        <v>93</v>
+      </c>
+      <c r="J190" t="s">
+        <v>69</v>
+      </c>
+      <c r="K190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>796</v>
+      </c>
+      <c r="B191" t="s">
+        <v>346</v>
+      </c>
+      <c r="C191" t="s">
+        <v>797</v>
+      </c>
+      <c r="D191" t="s">
+        <v>798</v>
+      </c>
+      <c r="E191" t="s">
+        <v>97</v>
+      </c>
+      <c r="G191" t="s">
+        <v>5</v>
+      </c>
+      <c r="H191" t="s">
+        <v>799</v>
+      </c>
+      <c r="I191" t="s">
+        <v>29</v>
+      </c>
+      <c r="J191" t="s">
+        <v>30</v>
+      </c>
+      <c r="K191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>800</v>
+      </c>
+      <c r="B192" t="s">
+        <v>346</v>
+      </c>
+      <c r="C192" t="s">
+        <v>801</v>
+      </c>
+      <c r="D192" t="s">
+        <v>802</v>
+      </c>
+      <c r="E192" t="s">
+        <v>39</v>
+      </c>
+      <c r="G192" t="s">
+        <v>91</v>
+      </c>
+      <c r="H192" t="s">
+        <v>803</v>
+      </c>
+      <c r="I192" t="s">
+        <v>7</v>
+      </c>
+      <c r="J192" t="s">
+        <v>24</v>
+      </c>
+      <c r="K192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>804</v>
+      </c>
+      <c r="B193" t="s">
+        <v>346</v>
+      </c>
+      <c r="C193" t="s">
+        <v>805</v>
+      </c>
+      <c r="D193" t="s">
+        <v>798</v>
+      </c>
+      <c r="E193" t="s">
+        <v>97</v>
+      </c>
+      <c r="G193" t="s">
+        <v>4</v>
+      </c>
+      <c r="H193" t="s">
+        <v>4</v>
+      </c>
+      <c r="I193" t="s">
+        <v>29</v>
+      </c>
+      <c r="J193" t="s">
+        <v>210</v>
+      </c>
+      <c r="K193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>806</v>
+      </c>
+      <c r="B194" t="s">
+        <v>346</v>
+      </c>
+      <c r="C194" t="s">
+        <v>370</v>
+      </c>
+      <c r="D194" t="s">
+        <v>807</v>
+      </c>
+      <c r="E194" t="s">
+        <v>4</v>
+      </c>
+      <c r="G194" t="s">
+        <v>91</v>
+      </c>
+      <c r="H194" t="s">
+        <v>808</v>
+      </c>
+      <c r="I194" t="s">
+        <v>35</v>
+      </c>
+      <c r="J194" t="s">
+        <v>809</v>
+      </c>
+      <c r="K194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>810</v>
+      </c>
+      <c r="B195" t="s">
+        <v>346</v>
+      </c>
+      <c r="C195" t="s">
+        <v>811</v>
+      </c>
+      <c r="D195" t="s">
+        <v>812</v>
+      </c>
+      <c r="E195" t="s">
+        <v>4</v>
+      </c>
+      <c r="G195" t="s">
+        <v>5</v>
+      </c>
+      <c r="H195" t="s">
+        <v>813</v>
+      </c>
+      <c r="I195" t="s">
+        <v>51</v>
+      </c>
+      <c r="J195" t="s">
+        <v>168</v>
+      </c>
+      <c r="K195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>814</v>
+      </c>
+      <c r="B196" t="s">
+        <v>346</v>
+      </c>
+      <c r="C196" t="s">
+        <v>815</v>
+      </c>
+      <c r="D196" t="s">
+        <v>816</v>
+      </c>
+      <c r="E196" t="s">
+        <v>39</v>
+      </c>
+      <c r="G196" t="s">
+        <v>5</v>
+      </c>
+      <c r="H196" t="s">
+        <v>817</v>
+      </c>
+      <c r="I196" t="s">
+        <v>7</v>
+      </c>
+      <c r="J196" t="s">
+        <v>24</v>
+      </c>
+      <c r="K196" t="s">
         <v>4</v>
       </c>
     </row>
